--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE01ISSM_00006.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE01ISSM_00006.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaesm/Documents/dev/repos/ooi-integration/asset-management/ARCHIVE/deployment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="18015" activeTab="1"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="25600" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="220">
   <si>
     <t>Mooring OOIBARCODE</t>
   </si>
@@ -557,9 +570,6 @@
     <t>P0085</t>
   </si>
   <si>
-    <t>26-1328</t>
-  </si>
-  <si>
     <t>607.2786</t>
   </si>
   <si>
@@ -603,6 +613,81 @@
   </si>
   <si>
     <t>0014</t>
+  </si>
+  <si>
+    <t>CGMCE-01ISSM-00006</t>
+  </si>
+  <si>
+    <t>CGINS-FLORTD-01121</t>
+  </si>
+  <si>
+    <t>CGINS-VELPTA-11789</t>
+  </si>
+  <si>
+    <t>CGINS-CTDBPC-50013</t>
+  </si>
+  <si>
+    <t>CGINS-DOSTAD-04831</t>
+  </si>
+  <si>
+    <t>CGINS-DOSTAD-04832</t>
+  </si>
+  <si>
+    <t>CGINS-DOSTAD-04833</t>
+  </si>
+  <si>
+    <t>CGINS-DOSTAD-04834</t>
+  </si>
+  <si>
+    <t>CGINS-FLORTD-01151</t>
+  </si>
+  <si>
+    <t>CGINS-PHSEND-00120</t>
+  </si>
+  <si>
+    <t>CGINS-SPKIRB-00296</t>
+  </si>
+  <si>
+    <t>CGINS-VELPTA-11380</t>
+  </si>
+  <si>
+    <t>CGINS-ADCPTM-21517</t>
+  </si>
+  <si>
+    <t>CGINS-CTDBPC-50153</t>
+  </si>
+  <si>
+    <t>CGINS-DOSTAD-00479</t>
+  </si>
+  <si>
+    <t>CGINS-PCO2WB-00053</t>
+  </si>
+  <si>
+    <t>CGINS-PCO2WB-00084</t>
+  </si>
+  <si>
+    <t>CGINS-PHSEND-00085</t>
+  </si>
+  <si>
+    <t>CGINS-VEL3DD-12604</t>
+  </si>
+  <si>
+    <t>CGINS-CTDBPC-50188</t>
+  </si>
+  <si>
+    <t>CGINS-NUTNRB-00265</t>
+  </si>
+  <si>
+    <t>CGINS-ZPLSCC-55096</t>
+  </si>
+  <si>
+    <t>CGINS-PRESFA-01328</t>
+  </si>
+  <si>
+    <t>CGINS-MOPAKA-11918</t>
+  </si>
+  <si>
+    <t>26P-1328</t>
   </si>
 </sst>
 </file>
@@ -612,7 +697,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -641,6 +726,18 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -795,19 +892,6 @@
       </top>
       <bottom style="hair">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,12 +1197,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,347 +1241,356 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2658,30 +2772,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2725,8 +2839,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
@@ -2763,7 +2879,7 @@
         <v>-124.09504</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2779,7 +2895,7 @@
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2795,7 +2911,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2811,7 +2927,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -2827,7 +2943,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -2843,7 +2959,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -2859,7 +2975,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -2875,7 +2991,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2904,29 +3020,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV225"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="16" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="27" style="85" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="97" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="18" customWidth="1"/>
-    <col min="14" max="256" width="8.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="27" style="84" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="96" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="84" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="18" customWidth="1"/>
+    <col min="14" max="256" width="8.83203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -2945,13 +3061,13 @@
       <c r="F1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="85" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="17"/>
@@ -2968,15 +3084,15 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="63"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="100"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="51"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -2992,32 +3108,36 @@
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C3" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="64">
-        <v>6</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="75" t="s">
+      <c r="D3" s="63">
+        <v>6</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="101">
+      <c r="H3" s="100">
         <v>44.659750000000003</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -3030,30 +3150,34 @@
       <c r="IU3"/>
       <c r="IV3"/>
     </row>
-    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C4" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="64">
-        <v>6</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="76" t="s">
+      <c r="D4" s="63">
+        <v>6</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="100">
         <v>-124.09504</v>
       </c>
       <c r="I4" s="51"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -3066,30 +3190,34 @@
       <c r="IU4"/>
       <c r="IV4"/>
     </row>
-    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C5" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="64">
-        <v>6</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="63">
+        <v>6</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="100">
+      <c r="H5" s="99">
         <v>1.2526454299999999E-3</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
@@ -3102,30 +3230,34 @@
       <c r="IU5"/>
       <c r="IV5"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C6" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="64">
-        <v>6</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="76" t="s">
+      <c r="D6" s="63">
+        <v>6</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="99">
         <v>2.7661600199999997E-4</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -3138,30 +3270,34 @@
       <c r="IU6"/>
       <c r="IV6"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C7" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="64">
-        <v>6</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="75" t="s">
+      <c r="D7" s="63">
+        <v>6</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="99">
         <v>-1.4033657199999999E-6</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -3174,30 +3310,34 @@
       <c r="IU7"/>
       <c r="IV7"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C8" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="64">
-        <v>6</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="76" t="s">
+      <c r="D8" s="63">
+        <v>6</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="99">
         <v>1.9330882899999999E-7</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
@@ -3210,30 +3350,34 @@
       <c r="IU8"/>
       <c r="IV8"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C9" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="64">
-        <v>6</v>
-      </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="75" t="s">
+      <c r="D9" s="63">
+        <v>6</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="100">
+      <c r="H9" s="99">
         <v>-56.136226000000001</v>
       </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
@@ -3246,30 +3390,34 @@
       <c r="IU9"/>
       <c r="IV9"/>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C10" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="64">
-        <v>6</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="76" t="s">
+      <c r="D10" s="63">
+        <v>6</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="99">
         <v>55.569843599999999</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -3282,30 +3430,34 @@
       <c r="IU10"/>
       <c r="IV10"/>
     </row>
-    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C11" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="64">
-        <v>6</v>
-      </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="75" t="s">
+      <c r="D11" s="63">
+        <v>6</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="100">
+      <c r="H11" s="99">
         <v>-0.83339400600000002</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
@@ -3318,30 +3470,34 @@
       <c r="IU11"/>
       <c r="IV11"/>
     </row>
-    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C12" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="64">
-        <v>6</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="76" t="s">
+      <c r="D12" s="63">
+        <v>6</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="99">
         <v>523813.51799999998</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
@@ -3354,30 +3510,34 @@
       <c r="IU12"/>
       <c r="IV12"/>
     </row>
-    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C13" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="64">
-        <v>6</v>
-      </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="75" t="s">
+      <c r="D13" s="63">
+        <v>6</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="100">
+      <c r="H13" s="99">
         <v>-20.9667207</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -3390,30 +3550,34 @@
       <c r="IU13"/>
       <c r="IV13"/>
     </row>
-    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C14" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="64">
-        <v>6</v>
-      </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="76" t="s">
+      <c r="D14" s="63">
+        <v>6</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="100">
+      <c r="H14" s="99">
         <v>0.34916588500000001</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -3426,30 +3590,34 @@
       <c r="IU14"/>
       <c r="IV14"/>
     </row>
-    <row r="15" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C15" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="64">
-        <v>6</v>
-      </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="75" t="s">
+      <c r="D15" s="63">
+        <v>6</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="100">
+      <c r="H15" s="99">
         <v>24.992625</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -3462,30 +3630,34 @@
       <c r="IU15"/>
       <c r="IV15"/>
     </row>
-    <row r="16" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C16" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="64">
-        <v>6</v>
-      </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="76" t="s">
+      <c r="D16" s="63">
+        <v>6</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="100">
+      <c r="H16" s="99">
         <v>-8.7500000000000002E-4</v>
       </c>
-      <c r="I16" s="87"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -3498,30 +3670,34 @@
       <c r="IU16"/>
       <c r="IV16"/>
     </row>
-    <row r="17" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C17" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="64">
-        <v>6</v>
-      </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="75" t="s">
+      <c r="D17" s="63">
+        <v>6</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="100">
+      <c r="H17" s="99">
         <v>0</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
@@ -3534,30 +3710,34 @@
       <c r="IU17"/>
       <c r="IV17"/>
     </row>
-    <row r="18" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C18" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="64">
-        <v>6</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="76" t="s">
+      <c r="D18" s="63">
+        <v>6</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="100">
+      <c r="H18" s="99">
         <v>-0.14116525399999999</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
@@ -3570,30 +3750,34 @@
       <c r="IU18"/>
       <c r="IV18"/>
     </row>
-    <row r="19" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52"/>
+      <c r="B19" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C19" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="64">
-        <v>6</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="75" t="s">
+      <c r="D19" s="63">
+        <v>6</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="100">
+      <c r="H19" s="99">
         <v>4.89862321E-4</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -3606,30 +3790,34 @@
       <c r="IU19"/>
       <c r="IV19"/>
     </row>
-    <row r="20" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C20" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="64">
-        <v>6</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="76" t="s">
+      <c r="D20" s="63">
+        <v>6</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="100">
+      <c r="H20" s="99">
         <v>-4.1181095699999996E-12</v>
       </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -3642,30 +3830,34 @@
       <c r="IU20"/>
       <c r="IV20"/>
     </row>
-    <row r="21" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C21" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="64">
-        <v>6</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="75" t="s">
+      <c r="D21" s="63">
+        <v>6</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="100">
+      <c r="H21" s="99">
         <v>-0.98317628599999995</v>
       </c>
-      <c r="I21" s="87"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -3678,30 +3870,34 @@
       <c r="IU21"/>
       <c r="IV21"/>
     </row>
-    <row r="22" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C22" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="64">
-        <v>6</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="76" t="s">
+      <c r="D22" s="63">
+        <v>6</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="80" t="s">
+      <c r="G22" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="100">
+      <c r="H22" s="99">
         <v>0.139725186</v>
       </c>
-      <c r="I22" s="87"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -3714,30 +3910,34 @@
       <c r="IU22"/>
       <c r="IV22"/>
     </row>
-    <row r="23" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="52"/>
+      <c r="B23" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C23" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="64">
-        <v>6</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="75" t="s">
+      <c r="D23" s="63">
+        <v>6</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="100">
+      <c r="H23" s="99">
         <v>-1.6916885E-4</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -3750,30 +3950,34 @@
       <c r="IU23"/>
       <c r="IV23"/>
     </row>
-    <row r="24" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="52"/>
+      <c r="B24" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C24" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="64">
-        <v>6</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="76" t="s">
+      <c r="D24" s="63">
+        <v>6</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="100">
+      <c r="H24" s="99">
         <v>3.2370950800000002E-5</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -3786,28 +3990,32 @@
       <c r="IU24"/>
       <c r="IV24"/>
     </row>
-    <row r="25" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="52"/>
+      <c r="B25" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C25" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="64">
-        <v>6</v>
-      </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="75" t="s">
+      <c r="D25" s="63">
+        <v>6</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="G25" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="100">
+      <c r="H25" s="99">
         <v>-9.5700000000000003E-8</v>
       </c>
-      <c r="I25" s="87"/>
+      <c r="I25" s="86"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -3822,28 +4030,32 @@
       <c r="IU25"/>
       <c r="IV25"/>
     </row>
-    <row r="26" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C26" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="64">
-        <v>6</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="76" t="s">
+      <c r="D26" s="63">
+        <v>6</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="100">
+      <c r="H26" s="99">
         <v>3.2499999999999998E-6</v>
       </c>
-      <c r="I26" s="87"/>
+      <c r="I26" s="86"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -3858,15 +4070,15 @@
       <c r="IU26"/>
       <c r="IV26"/>
     </row>
-    <row r="27" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
-      <c r="B27" s="52"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="65"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="52"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="102"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="101"/>
       <c r="I27" s="31"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -3882,25 +4094,29 @@
       <c r="IU27"/>
       <c r="IV27"/>
     </row>
-    <row r="28" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C28" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="64">
-        <v>6</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="75" t="s">
+      <c r="D28" s="63">
+        <v>6</v>
+      </c>
+      <c r="E28" s="135" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="98">
+      <c r="H28" s="97">
         <v>56</v>
       </c>
       <c r="I28" s="24" t="s">
@@ -3920,25 +4136,29 @@
       <c r="IU28"/>
       <c r="IV28"/>
     </row>
-    <row r="29" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C29" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="64">
-        <v>6</v>
-      </c>
-      <c r="E29" s="52"/>
+      <c r="D29" s="63">
+        <v>6</v>
+      </c>
+      <c r="E29" s="135" t="s">
+        <v>196</v>
+      </c>
       <c r="F29" s="54">
         <v>1121</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="110">
+      <c r="H29" s="109">
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="I29" s="31"/>
@@ -3956,25 +4176,29 @@
       <c r="IU29"/>
       <c r="IV29"/>
     </row>
-    <row r="30" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="52"/>
+      <c r="B30" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C30" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="64">
-        <v>6</v>
-      </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="75" t="s">
+      <c r="D30" s="63">
+        <v>6</v>
+      </c>
+      <c r="E30" s="135" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="98">
+      <c r="H30" s="97">
         <v>56</v>
       </c>
       <c r="I30" s="31"/>
@@ -3992,25 +4216,29 @@
       <c r="IU30"/>
       <c r="IV30"/>
     </row>
-    <row r="31" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="52"/>
+      <c r="B31" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C31" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="64">
-        <v>6</v>
-      </c>
-      <c r="E31" s="52"/>
+      <c r="D31" s="63">
+        <v>6</v>
+      </c>
+      <c r="E31" s="135" t="s">
+        <v>196</v>
+      </c>
       <c r="F31" s="54">
         <v>1121</v>
       </c>
-      <c r="G31" s="80" t="s">
+      <c r="G31" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="98">
+      <c r="H31" s="97">
         <v>1.18E-2</v>
       </c>
       <c r="I31" s="31"/>
@@ -4028,25 +4256,29 @@
       <c r="IU31"/>
       <c r="IV31"/>
     </row>
-    <row r="32" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="52"/>
+      <c r="B32" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C32" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="64">
-        <v>6</v>
-      </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="75" t="s">
+      <c r="D32" s="63">
+        <v>6</v>
+      </c>
+      <c r="E32" s="135" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="98">
+      <c r="H32" s="97">
         <v>47</v>
       </c>
       <c r="I32" s="31"/>
@@ -4064,25 +4296,29 @@
       <c r="IU32"/>
       <c r="IV32"/>
     </row>
-    <row r="33" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="52"/>
+      <c r="B33" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C33" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="64">
-        <v>6</v>
-      </c>
-      <c r="E33" s="52"/>
+      <c r="D33" s="63">
+        <v>6</v>
+      </c>
+      <c r="E33" s="135" t="s">
+        <v>196</v>
+      </c>
       <c r="F33" s="54">
         <v>1121</v>
       </c>
-      <c r="G33" s="80" t="s">
+      <c r="G33" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="98">
+      <c r="H33" s="97">
         <v>8.2699999999999996E-2</v>
       </c>
       <c r="I33" s="31"/>
@@ -4100,25 +4336,29 @@
       <c r="IU33"/>
       <c r="IV33"/>
     </row>
-    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="52"/>
+      <c r="B34" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C34" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="64">
-        <v>6</v>
-      </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="75" t="s">
+      <c r="D34" s="63">
+        <v>6</v>
+      </c>
+      <c r="E34" s="135" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="80" t="s">
+      <c r="G34" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="98">
+      <c r="H34" s="97">
         <v>124</v>
       </c>
       <c r="I34" s="57" t="s">
@@ -4138,25 +4378,29 @@
       <c r="IU34"/>
       <c r="IV34"/>
     </row>
-    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="52"/>
+      <c r="B35" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C35" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="64">
-        <v>6</v>
-      </c>
-      <c r="E35" s="52"/>
+      <c r="D35" s="63">
+        <v>6</v>
+      </c>
+      <c r="E35" s="135" t="s">
+        <v>196</v>
+      </c>
       <c r="F35" s="54">
         <v>1121</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="98">
+      <c r="H35" s="97">
         <v>700</v>
       </c>
       <c r="I35" s="24" t="s">
@@ -4176,25 +4420,29 @@
       <c r="IU35"/>
       <c r="IV35"/>
     </row>
-    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C36" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="64">
-        <v>6</v>
-      </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="75" t="s">
+      <c r="D36" s="63">
+        <v>6</v>
+      </c>
+      <c r="E36" s="135" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="80" t="s">
+      <c r="G36" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="98">
+      <c r="H36" s="97">
         <v>1.0760000000000001</v>
       </c>
       <c r="I36" s="57" t="s">
@@ -4214,25 +4462,29 @@
       <c r="IU36"/>
       <c r="IV36"/>
     </row>
-    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="52"/>
+      <c r="B37" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C37" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="64">
-        <v>6</v>
-      </c>
-      <c r="E37" s="52"/>
+      <c r="D37" s="63">
+        <v>6</v>
+      </c>
+      <c r="E37" s="135" t="s">
+        <v>196</v>
+      </c>
       <c r="F37" s="54">
         <v>1121</v>
       </c>
-      <c r="G37" s="80" t="s">
+      <c r="G37" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="98">
+      <c r="H37" s="97">
         <v>3.9E-2</v>
       </c>
       <c r="I37" s="24" t="s">
@@ -4252,15 +4504,15 @@
       <c r="IU37"/>
       <c r="IV37"/>
     </row>
-    <row r="38" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
-      <c r="B38" s="22"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="31"/>
-      <c r="D38" s="65"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="22"/>
       <c r="F38" s="31"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="102"/>
+      <c r="H38" s="101"/>
       <c r="I38" s="31"/>
       <c r="J38" s="34"/>
       <c r="K38" s="17"/>
@@ -4276,25 +4528,29 @@
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
     </row>
-    <row r="39" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C39" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="64">
-        <v>6</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="111" t="s">
+      <c r="D39" s="63">
+        <v>6</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="110" t="s">
         <v>163</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="102"/>
+      <c r="H39" s="101"/>
       <c r="I39" s="48"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
@@ -4310,15 +4566,15 @@
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
     </row>
-    <row r="40" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="65"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="22"/>
       <c r="F40" s="31"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="102"/>
+      <c r="H40" s="101"/>
       <c r="I40" s="31"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
@@ -4334,25 +4590,29 @@
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
     </row>
-    <row r="41" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C41" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="66">
-        <v>6</v>
-      </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="112" t="s">
+      <c r="D41" s="65">
+        <v>6</v>
+      </c>
+      <c r="E41" s="135" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="111" t="s">
         <v>164</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="101">
+      <c r="H41" s="100">
         <v>44.659750000000003</v>
       </c>
       <c r="I41" s="48"/>
@@ -4370,25 +4630,29 @@
       <c r="U41" s="22"/>
       <c r="V41" s="22"/>
     </row>
-    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C42" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="66">
-        <v>6</v>
-      </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="112" t="s">
+      <c r="D42" s="65">
+        <v>6</v>
+      </c>
+      <c r="E42" s="135" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="111" t="s">
         <v>164</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="101">
+      <c r="H42" s="100">
         <v>-124.09504</v>
       </c>
       <c r="I42" s="31"/>
@@ -4406,15 +4670,15 @@
       <c r="U42" s="22"/>
       <c r="V42" s="22"/>
     </row>
-    <row r="43" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="67"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="102"/>
+      <c r="H43" s="101"/>
       <c r="I43" s="31"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
@@ -4430,25 +4694,29 @@
       <c r="U43" s="22"/>
       <c r="V43" s="22"/>
     </row>
-    <row r="44" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C44" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="66">
-        <v>6</v>
-      </c>
-      <c r="E44" s="35"/>
+      <c r="D44" s="65">
+        <v>6</v>
+      </c>
+      <c r="E44" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F44" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="101">
+      <c r="H44" s="100">
         <v>44.659750000000003</v>
       </c>
       <c r="I44" s="31"/>
@@ -4466,25 +4734,29 @@
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="35"/>
+      <c r="B45" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C45" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="66">
-        <v>6</v>
-      </c>
-      <c r="E45" s="35"/>
+      <c r="D45" s="65">
+        <v>6</v>
+      </c>
+      <c r="E45" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F45" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="101">
+      <c r="H45" s="100">
         <v>-124.09504</v>
       </c>
       <c r="I45" s="31"/>
@@ -4502,25 +4774,29 @@
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C46" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="66">
-        <v>6</v>
-      </c>
-      <c r="E46" s="35"/>
+      <c r="D46" s="65">
+        <v>6</v>
+      </c>
+      <c r="E46" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F46" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="98">
+      <c r="H46" s="97">
         <v>1.2662567700000001E-3</v>
       </c>
       <c r="I46" s="48"/>
@@ -4538,25 +4814,29 @@
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C47" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="66">
-        <v>6</v>
-      </c>
-      <c r="E47" s="35"/>
+      <c r="D47" s="65">
+        <v>6</v>
+      </c>
+      <c r="E47" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F47" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="98">
+      <c r="H47" s="97">
         <v>2.72697141E-4</v>
       </c>
       <c r="I47" s="48"/>
@@ -4574,25 +4854,29 @@
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="35"/>
+      <c r="B48" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C48" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="66">
-        <v>6</v>
-      </c>
-      <c r="E48" s="35"/>
+      <c r="D48" s="65">
+        <v>6</v>
+      </c>
+      <c r="E48" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F48" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="98">
+      <c r="H48" s="97">
         <v>-1.01418974E-6</v>
       </c>
       <c r="I48" s="48"/>
@@ -4610,25 +4894,29 @@
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="35"/>
+      <c r="B49" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C49" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="66">
-        <v>6</v>
-      </c>
-      <c r="E49" s="35"/>
+      <c r="D49" s="65">
+        <v>6</v>
+      </c>
+      <c r="E49" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F49" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="98">
+      <c r="H49" s="97">
         <v>1.7714855100000001E-7</v>
       </c>
       <c r="I49" s="48"/>
@@ -4646,25 +4934,29 @@
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="35"/>
+      <c r="B50" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C50" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="66">
-        <v>6</v>
-      </c>
-      <c r="E50" s="35"/>
+      <c r="D50" s="65">
+        <v>6</v>
+      </c>
+      <c r="E50" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F50" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="98">
+      <c r="H50" s="97">
         <v>-57.9196496</v>
       </c>
       <c r="I50" s="48"/>
@@ -4682,25 +4974,29 @@
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="35"/>
+      <c r="B51" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C51" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="66">
-        <v>6</v>
-      </c>
-      <c r="E51" s="35"/>
+      <c r="D51" s="65">
+        <v>6</v>
+      </c>
+      <c r="E51" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F51" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="98">
+      <c r="H51" s="97">
         <v>52.117100499999999</v>
       </c>
       <c r="I51" s="48"/>
@@ -4718,25 +5014,29 @@
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
     </row>
-    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C52" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="66">
-        <v>6</v>
-      </c>
-      <c r="E52" s="35"/>
+      <c r="D52" s="65">
+        <v>6</v>
+      </c>
+      <c r="E52" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F52" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="98">
+      <c r="H52" s="97">
         <v>2.4931940900000001E-2</v>
       </c>
       <c r="I52" s="48"/>
@@ -4754,25 +5054,29 @@
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
     </row>
-    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="35"/>
+      <c r="B53" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C53" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="66">
-        <v>6</v>
-      </c>
-      <c r="E53" s="35"/>
+      <c r="D53" s="65">
+        <v>6</v>
+      </c>
+      <c r="E53" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F53" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="98">
+      <c r="H53" s="97">
         <v>525769.01199999999</v>
       </c>
       <c r="I53" s="48"/>
@@ -4790,25 +5094,29 @@
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C54" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="66">
-        <v>6</v>
-      </c>
-      <c r="E54" s="35"/>
+      <c r="D54" s="65">
+        <v>6</v>
+      </c>
+      <c r="E54" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F54" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="98">
+      <c r="H54" s="97">
         <v>0.93813859300000002</v>
       </c>
       <c r="I54" s="48"/>
@@ -4826,25 +5134,29 @@
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="35"/>
+      <c r="B55" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C55" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="66">
-        <v>6</v>
-      </c>
-      <c r="E55" s="35"/>
+      <c r="D55" s="65">
+        <v>6</v>
+      </c>
+      <c r="E55" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F55" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="98">
+      <c r="H55" s="97">
         <v>-6.6762533499999999E-2</v>
       </c>
       <c r="I55" s="48"/>
@@ -4862,25 +5174,29 @@
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C56" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="66">
-        <v>6</v>
-      </c>
-      <c r="E56" s="35"/>
+      <c r="D56" s="65">
+        <v>6</v>
+      </c>
+      <c r="E56" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F56" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="98">
+      <c r="H56" s="97">
         <v>25.174875</v>
       </c>
       <c r="I56" s="48"/>
@@ -4898,25 +5214,29 @@
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="35"/>
+      <c r="B57" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C57" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="66">
-        <v>6</v>
-      </c>
-      <c r="E57" s="35"/>
+      <c r="D57" s="65">
+        <v>6</v>
+      </c>
+      <c r="E57" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F57" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H57" s="98">
+      <c r="H57" s="97">
         <v>1.175E-3</v>
       </c>
       <c r="I57" s="48"/>
@@ -4934,25 +5254,29 @@
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C58" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="66">
-        <v>6</v>
-      </c>
-      <c r="E58" s="35"/>
+      <c r="D58" s="65">
+        <v>6</v>
+      </c>
+      <c r="E58" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F58" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="98">
+      <c r="H58" s="97">
         <v>0</v>
       </c>
       <c r="I58" s="48"/>
@@ -4970,25 +5294,29 @@
       <c r="U58" s="17"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="35"/>
+      <c r="B59" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C59" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="66">
-        <v>6</v>
-      </c>
-      <c r="E59" s="35"/>
+      <c r="D59" s="65">
+        <v>6</v>
+      </c>
+      <c r="E59" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F59" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="98">
+      <c r="H59" s="97">
         <v>-7.5183302699999999E-3</v>
       </c>
       <c r="I59" s="48"/>
@@ -5006,25 +5334,29 @@
       <c r="U59" s="17"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="35"/>
+      <c r="B60" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C60" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="66">
-        <v>6</v>
-      </c>
-      <c r="E60" s="35"/>
+      <c r="D60" s="65">
+        <v>6</v>
+      </c>
+      <c r="E60" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F60" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H60" s="98">
+      <c r="H60" s="97">
         <v>4.8819153799999998E-4</v>
       </c>
       <c r="I60" s="48"/>
@@ -5042,25 +5374,29 @@
       <c r="U60" s="17"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="35"/>
+      <c r="B61" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C61" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="66">
-        <v>6</v>
-      </c>
-      <c r="E61" s="35"/>
+      <c r="D61" s="65">
+        <v>6</v>
+      </c>
+      <c r="E61" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F61" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H61" s="98">
+      <c r="H61" s="97">
         <v>-5.8241456399999998E-12</v>
       </c>
       <c r="I61" s="48"/>
@@ -5078,25 +5414,29 @@
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="35"/>
+      <c r="B62" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C62" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="66">
-        <v>6</v>
-      </c>
-      <c r="E62" s="35"/>
+      <c r="D62" s="65">
+        <v>6</v>
+      </c>
+      <c r="E62" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F62" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G62" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H62" s="98">
+      <c r="H62" s="97">
         <v>-0.98706406000000002</v>
       </c>
       <c r="I62" s="48"/>
@@ -5114,25 +5454,29 @@
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="35"/>
+      <c r="B63" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C63" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="66">
-        <v>6</v>
-      </c>
-      <c r="E63" s="35"/>
+      <c r="D63" s="65">
+        <v>6</v>
+      </c>
+      <c r="E63" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F63" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="98">
+      <c r="H63" s="97">
         <v>0.14112024200000001</v>
       </c>
       <c r="I63" s="48"/>
@@ -5150,25 +5494,29 @@
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="35"/>
+      <c r="B64" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C64" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="66">
-        <v>6</v>
-      </c>
-      <c r="E64" s="35"/>
+      <c r="D64" s="65">
+        <v>6</v>
+      </c>
+      <c r="E64" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F64" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="98">
+      <c r="H64" s="97">
         <v>-2.6504046400000001E-4</v>
       </c>
       <c r="I64" s="48"/>
@@ -5186,25 +5534,29 @@
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C65" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="66">
-        <v>6</v>
-      </c>
-      <c r="E65" s="35"/>
+      <c r="D65" s="65">
+        <v>6</v>
+      </c>
+      <c r="E65" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F65" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="98">
+      <c r="H65" s="97">
         <v>3.9622306200000001E-5</v>
       </c>
       <c r="I65" s="48"/>
@@ -5222,25 +5574,29 @@
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="35"/>
+      <c r="B66" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C66" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="66">
-        <v>6</v>
-      </c>
-      <c r="E66" s="35"/>
+      <c r="D66" s="65">
+        <v>6</v>
+      </c>
+      <c r="E66" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F66" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G66" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H66" s="98">
+      <c r="H66" s="97">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I66" s="48"/>
@@ -5258,25 +5614,29 @@
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="35"/>
+      <c r="B67" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C67" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="66">
-        <v>6</v>
-      </c>
-      <c r="E67" s="35"/>
+      <c r="D67" s="65">
+        <v>6</v>
+      </c>
+      <c r="E67" s="135" t="s">
+        <v>198</v>
+      </c>
       <c r="F67" s="53" t="s">
         <v>165</v>
       </c>
       <c r="G67" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="98">
+      <c r="H67" s="97">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I67" s="48"/>
@@ -5294,15 +5654,15 @@
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="134"/>
       <c r="C68" s="22"/>
-      <c r="D68" s="67"/>
+      <c r="D68" s="66"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="25"/>
-      <c r="H68" s="102"/>
+      <c r="H68" s="101"/>
       <c r="I68" s="31"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
@@ -5318,25 +5678,29 @@
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="35"/>
+      <c r="B69" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C69" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="66">
-        <v>6</v>
-      </c>
-      <c r="E69" s="35"/>
+      <c r="D69" s="65">
+        <v>6</v>
+      </c>
+      <c r="E69" s="135" t="s">
+        <v>199</v>
+      </c>
       <c r="F69" s="20">
         <v>485</v>
       </c>
       <c r="G69" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="101">
+      <c r="H69" s="100">
         <v>44.659750000000003</v>
       </c>
       <c r="I69" s="31"/>
@@ -5354,25 +5718,29 @@
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="35"/>
+      <c r="B70" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C70" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="66">
-        <v>6</v>
-      </c>
-      <c r="E70" s="35"/>
+      <c r="D70" s="65">
+        <v>6</v>
+      </c>
+      <c r="E70" s="135" t="s">
+        <v>200</v>
+      </c>
       <c r="F70" s="20">
         <v>485</v>
       </c>
       <c r="G70" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H70" s="101">
+      <c r="H70" s="100">
         <v>-124.09504</v>
       </c>
       <c r="I70" s="31"/>
@@ -5390,25 +5758,29 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="35"/>
+      <c r="B71" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C71" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="66">
-        <v>6</v>
-      </c>
-      <c r="E71" s="35"/>
+      <c r="D71" s="65">
+        <v>6</v>
+      </c>
+      <c r="E71" s="135" t="s">
+        <v>201</v>
+      </c>
       <c r="F71" s="20">
         <v>485</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H71" s="113" t="s">
+      <c r="H71" s="112" t="s">
         <v>166</v>
       </c>
       <c r="I71" s="31"/>
@@ -5426,25 +5798,29 @@
       <c r="U71" s="17"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="35"/>
+      <c r="B72" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C72" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="66">
-        <v>6</v>
-      </c>
-      <c r="E72" s="35"/>
+      <c r="D72" s="65">
+        <v>6</v>
+      </c>
+      <c r="E72" s="135" t="s">
+        <v>202</v>
+      </c>
       <c r="F72" s="20">
         <v>485</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="113" t="s">
+      <c r="H72" s="112" t="s">
         <v>119</v>
       </c>
       <c r="I72" s="24" t="s">
@@ -5464,15 +5840,15 @@
       <c r="U72" s="20"/>
       <c r="V72" s="20"/>
     </row>
-    <row r="73" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="134"/>
       <c r="C73" s="22"/>
-      <c r="D73" s="67"/>
+      <c r="D73" s="66"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="25"/>
-      <c r="H73" s="102"/>
+      <c r="H73" s="101"/>
       <c r="I73" s="31"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
@@ -5488,25 +5864,29 @@
       <c r="U73" s="17"/>
       <c r="V73" s="17"/>
     </row>
-    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="35"/>
+      <c r="B74" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C74" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="66">
-        <v>6</v>
-      </c>
-      <c r="E74" s="35"/>
+      <c r="D74" s="65">
+        <v>6</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F74" s="20">
         <v>1151</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H74" s="98">
+      <c r="H74" s="97">
         <v>54</v>
       </c>
       <c r="I74" s="31"/>
@@ -5524,25 +5904,29 @@
       <c r="U74" s="17"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="35"/>
+      <c r="B75" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C75" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="66">
-        <v>6</v>
-      </c>
-      <c r="E75" s="35"/>
+      <c r="D75" s="65">
+        <v>6</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F75" s="20">
         <v>1151</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H75" s="110">
+      <c r="H75" s="109">
         <v>2.1150000000000001E-6</v>
       </c>
       <c r="I75" s="31"/>
@@ -5560,25 +5944,29 @@
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="35"/>
+      <c r="B76" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C76" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="66">
-        <v>6</v>
-      </c>
-      <c r="E76" s="35"/>
+      <c r="D76" s="65">
+        <v>6</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F76" s="20">
         <v>1151</v>
       </c>
       <c r="G76" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H76" s="98">
+      <c r="H76" s="97">
         <v>46</v>
       </c>
       <c r="I76" s="31"/>
@@ -5596,25 +5984,29 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="35"/>
+      <c r="B77" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C77" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="66">
-        <v>6</v>
-      </c>
-      <c r="E77" s="35"/>
+      <c r="D77" s="65">
+        <v>6</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F77" s="20">
         <v>1151</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H77" s="98">
+      <c r="H77" s="97">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="I77" s="31"/>
@@ -5632,25 +6024,29 @@
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="35"/>
+      <c r="B78" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C78" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="66">
-        <v>6</v>
-      </c>
-      <c r="E78" s="35"/>
+      <c r="D78" s="65">
+        <v>6</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F78" s="20">
         <v>1151</v>
       </c>
       <c r="G78" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H78" s="98">
+      <c r="H78" s="97">
         <v>43</v>
       </c>
       <c r="I78" s="31"/>
@@ -5668,25 +6064,29 @@
       <c r="U78" s="17"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="35"/>
+      <c r="B79" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C79" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D79" s="66">
-        <v>6</v>
-      </c>
-      <c r="E79" s="35"/>
+      <c r="D79" s="65">
+        <v>6</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F79" s="20">
         <v>1151</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H79" s="98">
+      <c r="H79" s="97">
         <v>7.5200000000000003E-2</v>
       </c>
       <c r="I79" s="31"/>
@@ -5704,25 +6104,29 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="35"/>
+      <c r="B80" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C80" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="66">
-        <v>6</v>
-      </c>
-      <c r="E80" s="35"/>
+      <c r="D80" s="65">
+        <v>6</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F80" s="20">
         <v>1151</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H80" s="98">
+      <c r="H80" s="97">
         <v>124</v>
       </c>
       <c r="I80" s="57" t="s">
@@ -5742,25 +6146,29 @@
       <c r="U80" s="17"/>
       <c r="V80" s="17"/>
     </row>
-    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="35"/>
+      <c r="B81" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C81" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D81" s="66">
-        <v>6</v>
-      </c>
-      <c r="E81" s="35"/>
+      <c r="D81" s="65">
+        <v>6</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F81" s="20">
         <v>1151</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H81" s="98">
+      <c r="H81" s="97">
         <v>700</v>
       </c>
       <c r="I81" s="24" t="s">
@@ -5780,25 +6188,29 @@
       <c r="U81" s="17"/>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="35"/>
+      <c r="B82" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C82" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="66">
-        <v>6</v>
-      </c>
-      <c r="E82" s="35"/>
+      <c r="D82" s="65">
+        <v>6</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F82" s="20">
         <v>1151</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="98">
+      <c r="H82" s="97">
         <v>1.0760000000000001</v>
       </c>
       <c r="I82" s="57" t="s">
@@ -5818,25 +6230,29 @@
       <c r="U82" s="17"/>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="35"/>
+      <c r="B83" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C83" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="66">
-        <v>6</v>
-      </c>
-      <c r="E83" s="35"/>
+      <c r="D83" s="65">
+        <v>6</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="F83" s="20">
         <v>1151</v>
       </c>
       <c r="G83" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H83" s="98">
+      <c r="H83" s="97">
         <v>3.9E-2</v>
       </c>
       <c r="I83" s="24" t="s">
@@ -5856,15 +6272,15 @@
       <c r="U83" s="17"/>
       <c r="V83" s="17"/>
     </row>
-    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="134"/>
       <c r="C84" s="22"/>
-      <c r="D84" s="67"/>
+      <c r="D84" s="66"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="25"/>
-      <c r="H84" s="102"/>
+      <c r="H84" s="101"/>
       <c r="I84" s="31"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
@@ -5880,25 +6296,29 @@
       <c r="U84" s="17"/>
       <c r="V84" s="17"/>
     </row>
-    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="35"/>
+      <c r="B85" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C85" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D85" s="66">
-        <v>6</v>
-      </c>
-      <c r="E85" s="35"/>
+      <c r="D85" s="65">
+        <v>6</v>
+      </c>
+      <c r="E85" s="135" t="s">
+        <v>215</v>
+      </c>
       <c r="F85" s="20">
         <v>265</v>
       </c>
       <c r="G85" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H85" s="98">
+      <c r="H85" s="97">
         <v>217</v>
       </c>
       <c r="I85" s="24" t="s">
@@ -5918,25 +6338,29 @@
       <c r="U85" s="17"/>
       <c r="V85" s="17"/>
     </row>
-    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C86" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D86" s="66">
-        <v>6</v>
-      </c>
-      <c r="E86" s="35"/>
+      <c r="D86" s="65">
+        <v>6</v>
+      </c>
+      <c r="E86" s="135" t="s">
+        <v>215</v>
+      </c>
       <c r="F86" s="20">
         <v>265</v>
       </c>
       <c r="G86" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H86" s="98">
+      <c r="H86" s="97">
         <v>240</v>
       </c>
       <c r="I86" s="24" t="s">
@@ -5956,25 +6380,29 @@
       <c r="U86" s="17"/>
       <c r="V86" s="17"/>
     </row>
-    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="35"/>
+      <c r="B87" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C87" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D87" s="66">
-        <v>6</v>
-      </c>
-      <c r="E87" s="35"/>
+      <c r="D87" s="65">
+        <v>6</v>
+      </c>
+      <c r="E87" s="135" t="s">
+        <v>215</v>
+      </c>
       <c r="F87" s="20">
         <v>265</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H87" s="98">
+      <c r="H87" s="97">
         <v>19.96</v>
       </c>
       <c r="I87" s="31"/>
@@ -5992,25 +6420,29 @@
       <c r="U87" s="17"/>
       <c r="V87" s="17"/>
     </row>
-    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B88" s="35"/>
+      <c r="B88" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C88" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="66">
-        <v>6</v>
-      </c>
-      <c r="E88" s="35"/>
+      <c r="D88" s="65">
+        <v>6</v>
+      </c>
+      <c r="E88" s="135" t="s">
+        <v>215</v>
+      </c>
       <c r="F88" s="20">
         <v>265</v>
       </c>
       <c r="G88" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H88" s="103" t="s">
+      <c r="H88" s="102" t="s">
         <v>167</v>
       </c>
       <c r="I88" s="31"/>
@@ -6028,25 +6460,29 @@
       <c r="U88" s="17"/>
       <c r="V88" s="17"/>
     </row>
-    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B89" s="35"/>
+      <c r="B89" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C89" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="66">
-        <v>6</v>
-      </c>
-      <c r="E89" s="35"/>
+      <c r="D89" s="65">
+        <v>6</v>
+      </c>
+      <c r="E89" s="135" t="s">
+        <v>215</v>
+      </c>
       <c r="F89" s="20">
         <v>265</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H89" s="103" t="s">
+      <c r="H89" s="102" t="s">
         <v>168</v>
       </c>
       <c r="I89" s="31"/>
@@ -6064,25 +6500,29 @@
       <c r="U89" s="17"/>
       <c r="V89" s="17"/>
     </row>
-    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B90" s="35"/>
+      <c r="B90" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C90" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="66">
-        <v>6</v>
-      </c>
-      <c r="E90" s="35"/>
+      <c r="D90" s="65">
+        <v>6</v>
+      </c>
+      <c r="E90" s="135" t="s">
+        <v>215</v>
+      </c>
       <c r="F90" s="20">
         <v>265</v>
       </c>
       <c r="G90" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H90" s="103" t="s">
+      <c r="H90" s="102" t="s">
         <v>169</v>
       </c>
       <c r="I90" s="31"/>
@@ -6100,25 +6540,29 @@
       <c r="U90" s="17"/>
       <c r="V90" s="17"/>
     </row>
-    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="35"/>
+      <c r="B91" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C91" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D91" s="66">
-        <v>6</v>
-      </c>
-      <c r="E91" s="35"/>
+      <c r="D91" s="65">
+        <v>6</v>
+      </c>
+      <c r="E91" s="135" t="s">
+        <v>215</v>
+      </c>
       <c r="F91" s="20">
         <v>265</v>
       </c>
       <c r="G91" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H91" s="103" t="s">
+      <c r="H91" s="102" t="s">
         <v>170</v>
       </c>
       <c r="I91" s="31"/>
@@ -6136,15 +6580,15 @@
       <c r="U91" s="17"/>
       <c r="V91" s="17"/>
     </row>
-    <row r="92" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="134"/>
       <c r="C92" s="22"/>
-      <c r="D92" s="67"/>
+      <c r="D92" s="66"/>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
       <c r="G92" s="25"/>
-      <c r="H92" s="102"/>
+      <c r="H92" s="101"/>
       <c r="I92" s="31"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
@@ -6160,15 +6604,15 @@
       <c r="U92" s="17"/>
       <c r="V92" s="17"/>
     </row>
-    <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="131"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="129"/>
+    <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="76"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="128"/>
       <c r="I93" s="27" t="s">
         <v>76</v>
       </c>
@@ -6176,11 +6620,11 @@
       <c r="K93" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L93" s="66">
+      <c r="L93" s="65">
         <v>6</v>
       </c>
       <c r="M93" s="35"/>
-      <c r="N93" s="114" t="s">
+      <c r="N93" s="113" t="s">
         <v>21</v>
       </c>
       <c r="O93" s="23" t="s">
@@ -6194,15 +6638,15 @@
       <c r="U93" s="22"/>
       <c r="V93" s="22"/>
     </row>
-    <row r="94" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="131"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="129"/>
+    <row r="94" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="76"/>
+      <c r="B94" s="134"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="130"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="128"/>
       <c r="I94" s="27" t="s">
         <v>76</v>
       </c>
@@ -6210,11 +6654,11 @@
       <c r="K94" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L94" s="66">
+      <c r="L94" s="65">
         <v>6</v>
       </c>
       <c r="M94" s="35"/>
-      <c r="N94" s="114"/>
+      <c r="N94" s="113"/>
       <c r="O94" s="23" t="s">
         <v>78</v>
       </c>
@@ -6226,15 +6670,15 @@
       <c r="U94" s="22"/>
       <c r="V94" s="22"/>
     </row>
-    <row r="95" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="130"/>
+    <row r="95" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="76"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="130"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="129"/>
       <c r="I95" s="27" t="s">
         <v>76</v>
       </c>
@@ -6242,11 +6686,11 @@
       <c r="K95" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L95" s="66">
+      <c r="L95" s="65">
         <v>6</v>
       </c>
       <c r="M95" s="35"/>
-      <c r="N95" s="114"/>
+      <c r="N95" s="113"/>
       <c r="O95" s="23" t="s">
         <v>79</v>
       </c>
@@ -6258,15 +6702,15 @@
       <c r="U95" s="22"/>
       <c r="V95" s="22"/>
     </row>
-    <row r="96" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="131"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="77"/>
-      <c r="H96" s="129"/>
+    <row r="96" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="76"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="128"/>
       <c r="I96" s="27" t="s">
         <v>76</v>
       </c>
@@ -6274,11 +6718,11 @@
       <c r="K96" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L96" s="66">
+      <c r="L96" s="65">
         <v>6</v>
       </c>
       <c r="M96" s="35"/>
-      <c r="N96" s="114"/>
+      <c r="N96" s="113"/>
       <c r="O96" s="23" t="s">
         <v>80</v>
       </c>
@@ -6290,15 +6734,15 @@
       <c r="U96" s="22"/>
       <c r="V96" s="22"/>
     </row>
-    <row r="97" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="131"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="77"/>
-      <c r="H97" s="129"/>
+    <row r="97" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="76"/>
+      <c r="B97" s="134"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="128"/>
       <c r="I97" s="27" t="s">
         <v>76</v>
       </c>
@@ -6306,11 +6750,11 @@
       <c r="K97" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L97" s="66">
+      <c r="L97" s="65">
         <v>6</v>
       </c>
       <c r="M97" s="35"/>
-      <c r="N97" s="114"/>
+      <c r="N97" s="113"/>
       <c r="O97" s="23" t="s">
         <v>81</v>
       </c>
@@ -6322,15 +6766,15 @@
       <c r="U97" s="22"/>
       <c r="V97" s="22"/>
     </row>
-    <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="131"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="129"/>
+    <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="76"/>
+      <c r="B98" s="134"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="130"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="128"/>
       <c r="I98" s="27" t="s">
         <v>76</v>
       </c>
@@ -6338,11 +6782,11 @@
       <c r="K98" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L98" s="66">
+      <c r="L98" s="65">
         <v>6</v>
       </c>
       <c r="M98" s="35"/>
-      <c r="N98" s="114"/>
+      <c r="N98" s="113"/>
       <c r="O98" s="23" t="s">
         <v>82</v>
       </c>
@@ -6354,15 +6798,15 @@
       <c r="U98" s="22"/>
       <c r="V98" s="22"/>
     </row>
-    <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="129"/>
+    <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="76"/>
+      <c r="B99" s="134"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="128"/>
       <c r="I99" s="27" t="s">
         <v>76</v>
       </c>
@@ -6370,11 +6814,11 @@
       <c r="K99" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L99" s="66">
+      <c r="L99" s="65">
         <v>6</v>
       </c>
       <c r="M99" s="35"/>
-      <c r="N99" s="114"/>
+      <c r="N99" s="113"/>
       <c r="O99" s="23" t="s">
         <v>83</v>
       </c>
@@ -6386,15 +6830,15 @@
       <c r="U99" s="22"/>
       <c r="V99" s="22"/>
     </row>
-    <row r="100" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="129"/>
+    <row r="100" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="76"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="130"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="128"/>
       <c r="I100" s="37" t="s">
         <v>76</v>
       </c>
@@ -6402,12 +6846,12 @@
       <c r="K100" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="L100" s="68">
+      <c r="L100" s="67">
         <v>6</v>
       </c>
       <c r="M100" s="35"/>
-      <c r="N100" s="114"/>
-      <c r="O100" s="82" t="s">
+      <c r="N100" s="113"/>
+      <c r="O100" s="81" t="s">
         <v>84</v>
       </c>
       <c r="P100" s="17"/>
@@ -6418,15 +6862,15 @@
       <c r="U100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="134"/>
       <c r="C101" s="22"/>
-      <c r="D101" s="67"/>
+      <c r="D101" s="66"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
       <c r="G101" s="20"/>
-      <c r="H101" s="130"/>
+      <c r="H101" s="129"/>
       <c r="I101" s="31"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
@@ -6442,25 +6886,29 @@
       <c r="U101" s="17"/>
       <c r="V101" s="17"/>
     </row>
-    <row r="102" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="35"/>
+      <c r="B102" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C102" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D102" s="66">
-        <v>6</v>
-      </c>
-      <c r="E102" s="35"/>
+      <c r="D102" s="65">
+        <v>6</v>
+      </c>
+      <c r="E102" s="135" t="s">
+        <v>211</v>
+      </c>
       <c r="F102" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H102" s="98">
+      <c r="H102" s="97">
         <v>0.1236</v>
       </c>
       <c r="I102" s="31"/>
@@ -6478,25 +6926,29 @@
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
-    <row r="103" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="35"/>
+      <c r="B103" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C103" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D103" s="66">
-        <v>6</v>
-      </c>
-      <c r="E103" s="35"/>
+      <c r="D103" s="65">
+        <v>6</v>
+      </c>
+      <c r="E103" s="135" t="s">
+        <v>211</v>
+      </c>
       <c r="F103" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G103" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H103" s="98">
+      <c r="H103" s="97">
         <v>0.17019999999999999</v>
       </c>
       <c r="I103" s="31"/>
@@ -6514,25 +6966,29 @@
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
-    <row r="104" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="35"/>
+      <c r="B104" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C104" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D104" s="66">
-        <v>6</v>
-      </c>
-      <c r="E104" s="35"/>
+      <c r="D104" s="65">
+        <v>6</v>
+      </c>
+      <c r="E104" s="135" t="s">
+        <v>211</v>
+      </c>
       <c r="F104" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="98">
+      <c r="H104" s="97">
         <v>-0.94169999999999998</v>
       </c>
       <c r="I104" s="31"/>
@@ -6550,28 +7006,32 @@
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
     </row>
-    <row r="105" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B105" s="35"/>
+      <c r="B105" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C105" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="66">
-        <v>6</v>
-      </c>
-      <c r="E105" s="35"/>
+      <c r="D105" s="65">
+        <v>6</v>
+      </c>
+      <c r="E105" s="135" t="s">
+        <v>211</v>
+      </c>
       <c r="F105" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H105" s="98">
+      <c r="H105" s="97">
         <v>14.790800000000001</v>
       </c>
-      <c r="I105" s="88"/>
+      <c r="I105" s="87"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
@@ -6586,28 +7046,32 @@
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
-    <row r="106" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B106" s="35"/>
+      <c r="B106" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C106" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D106" s="66">
-        <v>6</v>
-      </c>
-      <c r="E106" s="35"/>
+      <c r="D106" s="65">
+        <v>6</v>
+      </c>
+      <c r="E106" s="135" t="s">
+        <v>211</v>
+      </c>
       <c r="F106" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G106" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H106" s="104">
+      <c r="H106" s="103">
         <v>19706</v>
       </c>
-      <c r="I106" s="89" t="s">
+      <c r="I106" s="88" t="s">
         <v>91</v>
       </c>
       <c r="J106" s="38"/>
@@ -6624,28 +7088,32 @@
       <c r="U106" s="17"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B107" s="35"/>
+      <c r="B107" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C107" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D107" s="66">
-        <v>6</v>
-      </c>
-      <c r="E107" s="35"/>
+      <c r="D107" s="65">
+        <v>6</v>
+      </c>
+      <c r="E107" s="135" t="s">
+        <v>211</v>
+      </c>
       <c r="F107" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G107" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H107" s="104">
+      <c r="H107" s="103">
         <v>34</v>
       </c>
-      <c r="I107" s="90" t="s">
+      <c r="I107" s="89" t="s">
         <v>93</v>
       </c>
       <c r="J107" s="38"/>
@@ -6662,28 +7130,32 @@
       <c r="U107" s="17"/>
       <c r="V107" s="17"/>
     </row>
-    <row r="108" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="35"/>
+      <c r="B108" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C108" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D108" s="66">
-        <v>6</v>
-      </c>
-      <c r="E108" s="35"/>
+      <c r="D108" s="65">
+        <v>6</v>
+      </c>
+      <c r="E108" s="135" t="s">
+        <v>211</v>
+      </c>
       <c r="F108" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G108" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="104">
+      <c r="H108" s="103">
         <v>3073</v>
       </c>
-      <c r="I108" s="91"/>
+      <c r="I108" s="90"/>
       <c r="J108" s="38"/>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
@@ -6698,28 +7170,32 @@
       <c r="U108" s="17"/>
       <c r="V108" s="17"/>
     </row>
-    <row r="109" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="35"/>
+      <c r="B109" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C109" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D109" s="66">
-        <v>6</v>
-      </c>
-      <c r="E109" s="35"/>
+      <c r="D109" s="65">
+        <v>6</v>
+      </c>
+      <c r="E109" s="135" t="s">
+        <v>211</v>
+      </c>
       <c r="F109" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G109" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="104">
+      <c r="H109" s="103">
         <v>44327</v>
       </c>
-      <c r="I109" s="92"/>
+      <c r="I109" s="91"/>
       <c r="J109" s="38"/>
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
@@ -6734,16 +7210,16 @@
       <c r="U109" s="17"/>
       <c r="V109" s="17"/>
     </row>
-    <row r="110" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
+      <c r="B110" s="134"/>
       <c r="C110" s="22"/>
-      <c r="D110" s="67"/>
+      <c r="D110" s="66"/>
       <c r="E110" s="22"/>
       <c r="F110" s="22"/>
       <c r="G110" s="25"/>
-      <c r="H110" s="102"/>
-      <c r="I110" s="93"/>
+      <c r="H110" s="101"/>
+      <c r="I110" s="92"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
@@ -6758,25 +7234,29 @@
       <c r="U110" s="17"/>
       <c r="V110" s="17"/>
     </row>
-    <row r="111" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="35"/>
+      <c r="B111" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C111" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D111" s="66">
-        <v>6</v>
-      </c>
-      <c r="E111" s="35"/>
+      <c r="D111" s="65">
+        <v>6</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="F111" s="53" t="s">
         <v>172</v>
       </c>
       <c r="G111" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H111" s="98">
+      <c r="H111" s="97">
         <v>17372</v>
       </c>
       <c r="I111" s="31"/>
@@ -6794,25 +7274,29 @@
       <c r="U111" s="22"/>
       <c r="V111" s="22"/>
     </row>
-    <row r="112" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B112" s="35"/>
+      <c r="B112" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C112" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D112" s="66">
-        <v>6</v>
-      </c>
-      <c r="E112" s="35"/>
+      <c r="D112" s="65">
+        <v>6</v>
+      </c>
+      <c r="E112" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="F112" s="53" t="s">
         <v>172</v>
       </c>
       <c r="G112" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H112" s="98">
+      <c r="H112" s="97">
         <v>94.1</v>
       </c>
       <c r="I112" s="31"/>
@@ -6830,25 +7314,29 @@
       <c r="U112" s="22"/>
       <c r="V112" s="22"/>
     </row>
-    <row r="113" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="35"/>
+      <c r="B113" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C113" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D113" s="66">
-        <v>6</v>
-      </c>
-      <c r="E113" s="35"/>
+      <c r="D113" s="65">
+        <v>6</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="F113" s="53" t="s">
         <v>172</v>
       </c>
       <c r="G113" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H113" s="98">
+      <c r="H113" s="97">
         <v>2229</v>
       </c>
       <c r="I113" s="31"/>
@@ -6866,25 +7354,29 @@
       <c r="U113" s="22"/>
       <c r="V113" s="22"/>
     </row>
-    <row r="114" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="35"/>
+      <c r="B114" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C114" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D114" s="66">
-        <v>6</v>
-      </c>
-      <c r="E114" s="35"/>
+      <c r="D114" s="65">
+        <v>6</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="F114" s="53" t="s">
         <v>172</v>
       </c>
       <c r="G114" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H114" s="98">
+      <c r="H114" s="97">
         <v>38502</v>
       </c>
       <c r="I114" s="31"/>
@@ -6902,25 +7394,29 @@
       <c r="U114" s="22"/>
       <c r="V114" s="22"/>
     </row>
-    <row r="115" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B115" s="35"/>
+      <c r="B115" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C115" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D115" s="66">
-        <v>6</v>
-      </c>
-      <c r="E115" s="35"/>
+      <c r="D115" s="65">
+        <v>6</v>
+      </c>
+      <c r="E115" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="F115" s="53" t="s">
         <v>172</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="104">
+      <c r="H115" s="103">
         <v>0</v>
       </c>
       <c r="I115" s="31"/>
@@ -6938,25 +7434,29 @@
       <c r="U115" s="22"/>
       <c r="V115" s="22"/>
     </row>
-    <row r="116" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B116" s="35"/>
+      <c r="B116" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C116" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="D116" s="69">
-        <v>6</v>
-      </c>
-      <c r="E116" s="35"/>
+      <c r="D116" s="68">
+        <v>6</v>
+      </c>
+      <c r="E116" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="F116" s="53" t="s">
         <v>172</v>
       </c>
       <c r="G116" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H116" s="104">
+      <c r="H116" s="103">
         <v>1</v>
       </c>
       <c r="I116" s="41"/>
@@ -6974,25 +7474,29 @@
       <c r="U116" s="22"/>
       <c r="V116" s="22"/>
     </row>
-    <row r="117" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B117" s="43"/>
+      <c r="B117" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C117" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D117" s="70">
-        <v>6</v>
-      </c>
-      <c r="E117" s="43"/>
-      <c r="F117" s="115" t="s">
+      <c r="D117" s="69">
+        <v>6</v>
+      </c>
+      <c r="E117" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" s="114" t="s">
         <v>172</v>
       </c>
       <c r="G117" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H117" s="105">
+      <c r="H117" s="104">
         <v>35</v>
       </c>
       <c r="I117" s="44" t="s">
@@ -7012,16 +7516,16 @@
       <c r="U117" s="22"/>
       <c r="V117" s="22"/>
     </row>
-    <row r="118" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36"/>
-      <c r="B118" s="22"/>
+      <c r="B118" s="134"/>
       <c r="C118" s="36"/>
-      <c r="D118" s="71"/>
+      <c r="D118" s="70"/>
       <c r="E118" s="22"/>
       <c r="F118" s="36"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="102"/>
-      <c r="I118" s="94"/>
+      <c r="G118" s="82"/>
+      <c r="H118" s="101"/>
+      <c r="I118" s="93"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22"/>
       <c r="L118" s="22"/>
@@ -7036,18 +7540,22 @@
       <c r="U118" s="22"/>
       <c r="V118" s="22"/>
     </row>
-    <row r="119" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B119" s="35"/>
+      <c r="B119" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C119" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D119" s="66">
-        <v>6</v>
-      </c>
-      <c r="E119" s="35"/>
+      <c r="D119" s="65">
+        <v>6</v>
+      </c>
+      <c r="E119" s="35" t="s">
+        <v>205</v>
+      </c>
       <c r="F119" s="20">
         <v>296</v>
       </c>
@@ -7057,7 +7565,7 @@
       <c r="H119" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I119" s="77"/>
+      <c r="I119" s="76"/>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
       <c r="L119" s="17"/>
@@ -7072,18 +7580,22 @@
       <c r="U119" s="17"/>
       <c r="V119" s="17"/>
     </row>
-    <row r="120" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B120" s="35"/>
+      <c r="B120" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C120" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D120" s="66">
-        <v>6</v>
-      </c>
-      <c r="E120" s="35"/>
+      <c r="D120" s="65">
+        <v>6</v>
+      </c>
+      <c r="E120" s="35" t="s">
+        <v>205</v>
+      </c>
       <c r="F120" s="20">
         <v>296</v>
       </c>
@@ -7093,7 +7605,7 @@
       <c r="H120" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="I120" s="77"/>
+      <c r="I120" s="76"/>
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
       <c r="L120" s="17"/>
@@ -7108,18 +7620,22 @@
       <c r="U120" s="17"/>
       <c r="V120" s="17"/>
     </row>
-    <row r="121" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="35"/>
+      <c r="B121" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C121" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D121" s="66">
-        <v>6</v>
-      </c>
-      <c r="E121" s="35"/>
+      <c r="D121" s="65">
+        <v>6</v>
+      </c>
+      <c r="E121" s="35" t="s">
+        <v>205</v>
+      </c>
       <c r="F121" s="20">
         <v>296</v>
       </c>
@@ -7129,7 +7645,7 @@
       <c r="H121" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="I121" s="77"/>
+      <c r="I121" s="76"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
@@ -7144,15 +7660,15 @@
       <c r="U121" s="17"/>
       <c r="V121" s="17"/>
     </row>
-    <row r="122" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="22"/>
-      <c r="B122" s="22"/>
+      <c r="B122" s="134"/>
       <c r="C122" s="22"/>
-      <c r="D122" s="67"/>
+      <c r="D122" s="66"/>
       <c r="E122" s="22"/>
       <c r="F122" s="22"/>
       <c r="G122" s="25"/>
-      <c r="H122" s="102"/>
+      <c r="H122" s="101"/>
       <c r="I122" s="31"/>
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
@@ -7168,25 +7684,29 @@
       <c r="U122" s="17"/>
       <c r="V122" s="17"/>
     </row>
-    <row r="123" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B123" s="35"/>
+      <c r="B123" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C123" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D123" s="66">
-        <v>6</v>
-      </c>
-      <c r="E123" s="35"/>
+      <c r="D123" s="65">
+        <v>6</v>
+      </c>
+      <c r="E123" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="F123" s="20">
         <v>11380</v>
       </c>
       <c r="G123" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H123" s="101">
+      <c r="H123" s="100">
         <v>44.659750000000003</v>
       </c>
       <c r="I123" s="31"/>
@@ -7204,25 +7724,29 @@
       <c r="U123" s="22"/>
       <c r="V123" s="22"/>
     </row>
-    <row r="124" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B124" s="35"/>
+      <c r="B124" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C124" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D124" s="66">
-        <v>6</v>
-      </c>
-      <c r="E124" s="35"/>
+      <c r="D124" s="65">
+        <v>6</v>
+      </c>
+      <c r="E124" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="F124" s="20">
         <v>11380</v>
       </c>
       <c r="G124" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H124" s="101">
+      <c r="H124" s="100">
         <v>-124.09504</v>
       </c>
       <c r="I124" s="31"/>
@@ -7240,15 +7764,15 @@
       <c r="U124" s="22"/>
       <c r="V124" s="22"/>
     </row>
-    <row r="125" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="33"/>
-      <c r="B125" s="22"/>
+      <c r="B125" s="134"/>
       <c r="C125" s="33"/>
-      <c r="D125" s="72"/>
+      <c r="D125" s="71"/>
       <c r="E125" s="22"/>
       <c r="F125" s="33"/>
-      <c r="G125" s="84"/>
-      <c r="H125" s="102"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="101"/>
       <c r="I125" s="41"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22"/>
@@ -7264,25 +7788,29 @@
       <c r="U125" s="22"/>
       <c r="V125" s="22"/>
     </row>
-    <row r="126" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B126" s="43"/>
+      <c r="B126" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C126" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D126" s="70">
-        <v>6</v>
-      </c>
-      <c r="E126" s="43"/>
+      <c r="D126" s="69">
+        <v>6</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>207</v>
+      </c>
       <c r="F126" s="45">
         <v>21517</v>
       </c>
       <c r="G126" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="H126" s="109">
+      <c r="H126" s="108">
         <v>25000</v>
       </c>
       <c r="I126" s="47" t="s">
@@ -7302,28 +7830,32 @@
       <c r="U126" s="17"/>
       <c r="V126" s="17"/>
     </row>
-    <row r="127" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B127" s="35"/>
+      <c r="B127" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C127" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="D127" s="73">
-        <v>6</v>
-      </c>
-      <c r="E127" s="35"/>
+      <c r="D127" s="72">
+        <v>6</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>207</v>
+      </c>
       <c r="F127" s="46">
         <v>21517</v>
       </c>
       <c r="G127" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H127" s="95">
+      <c r="H127" s="94">
         <v>44.659750000000003</v>
       </c>
-      <c r="I127" s="94"/>
+      <c r="I127" s="93"/>
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
@@ -7338,25 +7870,29 @@
       <c r="U127" s="17"/>
       <c r="V127" s="17"/>
     </row>
-    <row r="128" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="35"/>
+      <c r="B128" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C128" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D128" s="66">
-        <v>6</v>
-      </c>
-      <c r="E128" s="35"/>
+      <c r="D128" s="65">
+        <v>6</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>207</v>
+      </c>
       <c r="F128" s="20">
         <v>21517</v>
       </c>
       <c r="G128" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H128" s="95">
+      <c r="H128" s="94">
         <v>-124.09504</v>
       </c>
       <c r="I128" s="31"/>
@@ -7374,25 +7910,29 @@
       <c r="U128" s="17"/>
       <c r="V128" s="17"/>
     </row>
-    <row r="129" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B129" s="35"/>
+      <c r="B129" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C129" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D129" s="66">
-        <v>6</v>
-      </c>
-      <c r="E129" s="35"/>
+      <c r="D129" s="65">
+        <v>6</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>207</v>
+      </c>
       <c r="F129" s="46">
         <v>21517</v>
       </c>
       <c r="G129" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H129" s="98">
+      <c r="H129" s="97">
         <v>0.45</v>
       </c>
       <c r="I129" s="31"/>
@@ -7410,25 +7950,29 @@
       <c r="U129" s="17"/>
       <c r="V129" s="17"/>
     </row>
-    <row r="130" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B130" s="35"/>
+      <c r="B130" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C130" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D130" s="66">
-        <v>6</v>
-      </c>
-      <c r="E130" s="35"/>
+      <c r="D130" s="65">
+        <v>6</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>207</v>
+      </c>
       <c r="F130" s="20">
         <v>21517</v>
       </c>
       <c r="G130" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H130" s="98">
+      <c r="H130" s="97">
         <v>0.45</v>
       </c>
       <c r="I130" s="31"/>
@@ -7446,25 +7990,29 @@
       <c r="U130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="35"/>
+      <c r="B131" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C131" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D131" s="66">
-        <v>6</v>
-      </c>
-      <c r="E131" s="35"/>
+      <c r="D131" s="65">
+        <v>6</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>207</v>
+      </c>
       <c r="F131" s="46">
         <v>21517</v>
       </c>
       <c r="G131" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H131" s="98">
+      <c r="H131" s="97">
         <v>0.45</v>
       </c>
       <c r="I131" s="31"/>
@@ -7482,25 +8030,29 @@
       <c r="U131" s="17"/>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B132" s="35"/>
+      <c r="B132" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C132" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D132" s="66">
-        <v>6</v>
-      </c>
-      <c r="E132" s="35"/>
+      <c r="D132" s="65">
+        <v>6</v>
+      </c>
+      <c r="E132" s="43" t="s">
+        <v>207</v>
+      </c>
       <c r="F132" s="20">
         <v>21517</v>
       </c>
       <c r="G132" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="H132" s="98">
+      <c r="H132" s="97">
         <v>0.45</v>
       </c>
       <c r="I132" s="31"/>
@@ -7518,15 +8070,15 @@
       <c r="U132" s="17"/>
       <c r="V132" s="17"/>
     </row>
-    <row r="133" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="22"/>
-      <c r="B133" s="22"/>
+      <c r="B133" s="134"/>
       <c r="C133" s="17"/>
-      <c r="D133" s="63"/>
+      <c r="D133" s="62"/>
       <c r="E133" s="22"/>
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
-      <c r="H133" s="132"/>
+      <c r="H133" s="131"/>
       <c r="I133" s="48"/>
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
@@ -7542,15 +8094,15 @@
       <c r="U133" s="17"/>
       <c r="V133" s="17"/>
     </row>
-    <row r="134" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="77"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="77"/>
-      <c r="D134" s="131"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="77"/>
-      <c r="G134" s="77"/>
-      <c r="H134" s="132"/>
+    <row r="134" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="76"/>
+      <c r="B134" s="134"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="130"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="131"/>
       <c r="I134" s="27" t="s">
         <v>116</v>
       </c>
@@ -7558,14 +8110,14 @@
       <c r="K134" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L134" s="66">
+      <c r="L134" s="65">
         <v>6</v>
       </c>
       <c r="M134" s="25"/>
       <c r="N134" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O134" s="80" t="s">
+      <c r="O134" s="79" t="s">
         <v>60</v>
       </c>
       <c r="IO134"/>
@@ -7577,15 +8129,15 @@
       <c r="IU134"/>
       <c r="IV134"/>
     </row>
-    <row r="135" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
+      <c r="B135" s="134"/>
       <c r="C135" s="20"/>
-      <c r="D135" s="66"/>
+      <c r="D135" s="65"/>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
       <c r="G135" s="17"/>
-      <c r="H135" s="132"/>
+      <c r="H135" s="131"/>
       <c r="I135" s="51"/>
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
@@ -7601,25 +8153,29 @@
       <c r="U135" s="20"/>
       <c r="V135" s="20"/>
     </row>
-    <row r="136" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B136" s="35"/>
+      <c r="B136" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C136" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D136" s="66">
-        <v>6</v>
-      </c>
-      <c r="E136" s="35"/>
+      <c r="D136" s="65">
+        <v>6</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F136" s="53" t="s">
         <v>177</v>
       </c>
       <c r="G136" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H136" s="101">
+      <c r="H136" s="100">
         <v>44.659750000000003</v>
       </c>
       <c r="I136" s="48"/>
@@ -7637,25 +8193,29 @@
       <c r="U136" s="17"/>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B137" s="35"/>
+      <c r="B137" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C137" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D137" s="66">
-        <v>6</v>
-      </c>
-      <c r="E137" s="35"/>
+      <c r="D137" s="65">
+        <v>6</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F137" s="53" t="s">
         <v>177</v>
       </c>
       <c r="G137" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H137" s="101">
+      <c r="H137" s="100">
         <v>-124.09504</v>
       </c>
       <c r="I137" s="48"/>
@@ -7673,18 +8233,22 @@
       <c r="U137" s="17"/>
       <c r="V137" s="17"/>
     </row>
-    <row r="138" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="35"/>
+      <c r="B138" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C138" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D138" s="66">
-        <v>6</v>
-      </c>
-      <c r="E138" s="35"/>
+      <c r="D138" s="65">
+        <v>6</v>
+      </c>
+      <c r="E138" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F138" s="53" t="s">
         <v>177</v>
       </c>
@@ -7694,7 +8258,7 @@
       <c r="H138" s="29">
         <v>1.236654E-3</v>
       </c>
-      <c r="I138" s="77"/>
+      <c r="I138" s="76"/>
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
       <c r="L138" s="17"/>
@@ -7709,18 +8273,22 @@
       <c r="U138" s="17"/>
       <c r="V138" s="17"/>
     </row>
-    <row r="139" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B139" s="35"/>
+      <c r="B139" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C139" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D139" s="66">
-        <v>6</v>
-      </c>
-      <c r="E139" s="35"/>
+      <c r="D139" s="65">
+        <v>6</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F139" s="53" t="s">
         <v>177</v>
       </c>
@@ -7730,7 +8298,7 @@
       <c r="H139" s="29">
         <v>2.7733800000000002E-4</v>
       </c>
-      <c r="I139" s="77"/>
+      <c r="I139" s="76"/>
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
@@ -7745,28 +8313,32 @@
       <c r="U139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B140" s="35"/>
+      <c r="B140" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C140" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D140" s="66">
-        <v>6</v>
-      </c>
-      <c r="E140" s="35"/>
+      <c r="D140" s="65">
+        <v>6</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F140" s="53" t="s">
         <v>177</v>
       </c>
       <c r="G140" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="134">
+      <c r="H140" s="133">
         <v>-1.3400099999999999E-6</v>
       </c>
-      <c r="I140" s="77"/>
+      <c r="I140" s="76"/>
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
       <c r="L140" s="17"/>
@@ -7781,28 +8353,32 @@
       <c r="U140" s="17"/>
       <c r="V140" s="17"/>
     </row>
-    <row r="141" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="35"/>
+      <c r="B141" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C141" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D141" s="66">
-        <v>6</v>
-      </c>
-      <c r="E141" s="35"/>
+      <c r="D141" s="65">
+        <v>6</v>
+      </c>
+      <c r="E141" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F141" s="53" t="s">
         <v>177</v>
       </c>
       <c r="G141" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H141" s="134">
+      <c r="H141" s="133">
         <v>1.8930400000000001E-7</v>
       </c>
-      <c r="I141" s="77"/>
+      <c r="I141" s="76"/>
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17"/>
@@ -7817,18 +8393,22 @@
       <c r="U141" s="17"/>
       <c r="V141" s="17"/>
     </row>
-    <row r="142" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B142" s="35"/>
+      <c r="B142" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C142" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D142" s="66">
-        <v>6</v>
-      </c>
-      <c r="E142" s="35"/>
+      <c r="D142" s="65">
+        <v>6</v>
+      </c>
+      <c r="E142" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F142" s="53" t="s">
         <v>177</v>
       </c>
@@ -7838,7 +8418,7 @@
       <c r="H142" s="29">
         <v>-54.155555999999997</v>
       </c>
-      <c r="I142" s="77"/>
+      <c r="I142" s="76"/>
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17"/>
@@ -7853,18 +8433,22 @@
       <c r="U142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B143" s="35"/>
+      <c r="B143" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C143" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D143" s="66">
-        <v>6</v>
-      </c>
-      <c r="E143" s="35"/>
+      <c r="D143" s="65">
+        <v>6</v>
+      </c>
+      <c r="E143" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F143" s="53" t="s">
         <v>177</v>
       </c>
@@ -7874,7 +8458,7 @@
       <c r="H143" s="29">
         <v>53.229430399999998</v>
       </c>
-      <c r="I143" s="77"/>
+      <c r="I143" s="76"/>
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17"/>
@@ -7889,18 +8473,22 @@
       <c r="U143" s="17"/>
       <c r="V143" s="17"/>
     </row>
-    <row r="144" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B144" s="35"/>
+      <c r="B144" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C144" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D144" s="66">
-        <v>6</v>
-      </c>
-      <c r="E144" s="35"/>
+      <c r="D144" s="65">
+        <v>6</v>
+      </c>
+      <c r="E144" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F144" s="53" t="s">
         <v>177</v>
       </c>
@@ -7910,7 +8498,7 @@
       <c r="H144" s="29">
         <v>-0.226182772</v>
       </c>
-      <c r="I144" s="77"/>
+      <c r="I144" s="76"/>
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17"/>
@@ -7925,18 +8513,22 @@
       <c r="U144" s="17"/>
       <c r="V144" s="17"/>
     </row>
-    <row r="145" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B145" s="35"/>
+      <c r="B145" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C145" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D145" s="66">
-        <v>6</v>
-      </c>
-      <c r="E145" s="35"/>
+      <c r="D145" s="65">
+        <v>6</v>
+      </c>
+      <c r="E145" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F145" s="53" t="s">
         <v>177</v>
       </c>
@@ -7946,7 +8538,7 @@
       <c r="H145" s="29">
         <v>524660.20700000005</v>
       </c>
-      <c r="I145" s="77"/>
+      <c r="I145" s="76"/>
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
       <c r="L145" s="17"/>
@@ -7961,18 +8553,22 @@
       <c r="U145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B146" s="35"/>
+      <c r="B146" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C146" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D146" s="66">
-        <v>6</v>
-      </c>
-      <c r="E146" s="35"/>
+      <c r="D146" s="65">
+        <v>6</v>
+      </c>
+      <c r="E146" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F146" s="53" t="s">
         <v>177</v>
       </c>
@@ -7982,7 +8578,7 @@
       <c r="H146" s="29">
         <v>-28.4041961</v>
       </c>
-      <c r="I146" s="77"/>
+      <c r="I146" s="76"/>
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
       <c r="L146" s="17"/>
@@ -7997,18 +8593,22 @@
       <c r="U146" s="17"/>
       <c r="V146" s="17"/>
     </row>
-    <row r="147" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B147" s="35"/>
+      <c r="B147" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C147" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D147" s="66">
-        <v>6</v>
-      </c>
-      <c r="E147" s="35"/>
+      <c r="D147" s="65">
+        <v>6</v>
+      </c>
+      <c r="E147" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F147" s="53" t="s">
         <v>177</v>
       </c>
@@ -8018,7 +8618,7 @@
       <c r="H147" s="29">
         <v>0.44480056400000001</v>
       </c>
-      <c r="I147" s="77"/>
+      <c r="I147" s="76"/>
       <c r="J147" s="17"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17"/>
@@ -8033,18 +8633,22 @@
       <c r="U147" s="17"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B148" s="35"/>
+      <c r="B148" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C148" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D148" s="66">
-        <v>6</v>
-      </c>
-      <c r="E148" s="35"/>
+      <c r="D148" s="65">
+        <v>6</v>
+      </c>
+      <c r="E148" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F148" s="53" t="s">
         <v>177</v>
       </c>
@@ -8054,7 +8658,7 @@
       <c r="H148" s="29">
         <v>25.043875</v>
       </c>
-      <c r="I148" s="77"/>
+      <c r="I148" s="76"/>
       <c r="J148" s="17"/>
       <c r="K148" s="17"/>
       <c r="L148" s="17"/>
@@ -8069,18 +8673,22 @@
       <c r="U148" s="17"/>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B149" s="35"/>
+      <c r="B149" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C149" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D149" s="66">
-        <v>6</v>
-      </c>
-      <c r="E149" s="35"/>
+      <c r="D149" s="65">
+        <v>6</v>
+      </c>
+      <c r="E149" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F149" s="53" t="s">
         <v>177</v>
       </c>
@@ -8090,7 +8698,7 @@
       <c r="H149" s="29">
         <v>-2.5000000000000001E-5</v>
       </c>
-      <c r="I149" s="77"/>
+      <c r="I149" s="76"/>
       <c r="J149" s="17"/>
       <c r="K149" s="17"/>
       <c r="L149" s="17"/>
@@ -8105,18 +8713,22 @@
       <c r="U149" s="17"/>
       <c r="V149" s="17"/>
     </row>
-    <row r="150" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B150" s="35"/>
+      <c r="B150" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C150" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="66">
-        <v>6</v>
-      </c>
-      <c r="E150" s="35"/>
+      <c r="D150" s="65">
+        <v>6</v>
+      </c>
+      <c r="E150" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F150" s="53" t="s">
         <v>177</v>
       </c>
@@ -8126,7 +8738,7 @@
       <c r="H150" s="29">
         <v>0</v>
       </c>
-      <c r="I150" s="77"/>
+      <c r="I150" s="76"/>
       <c r="J150" s="17"/>
       <c r="K150" s="17"/>
       <c r="L150" s="17"/>
@@ -8141,18 +8753,22 @@
       <c r="U150" s="17"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B151" s="35"/>
+      <c r="B151" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C151" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D151" s="66">
-        <v>6</v>
-      </c>
-      <c r="E151" s="35"/>
+      <c r="D151" s="65">
+        <v>6</v>
+      </c>
+      <c r="E151" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F151" s="53" t="s">
         <v>177</v>
       </c>
@@ -8162,7 +8778,7 @@
       <c r="H151" s="29">
         <v>-0.20072347500000001</v>
       </c>
-      <c r="I151" s="77"/>
+      <c r="I151" s="76"/>
       <c r="J151" s="17"/>
       <c r="K151" s="17"/>
       <c r="L151" s="17"/>
@@ -8177,18 +8793,22 @@
       <c r="U151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B152" s="35"/>
+      <c r="B152" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C152" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D152" s="66">
-        <v>6</v>
-      </c>
-      <c r="E152" s="35"/>
+      <c r="D152" s="65">
+        <v>6</v>
+      </c>
+      <c r="E152" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F152" s="53" t="s">
         <v>177</v>
       </c>
@@ -8198,7 +8818,7 @@
       <c r="H152" s="29">
         <v>4.8833500000000001E-4</v>
       </c>
-      <c r="I152" s="77"/>
+      <c r="I152" s="76"/>
       <c r="J152" s="17"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17"/>
@@ -8213,28 +8833,32 @@
       <c r="U152" s="17"/>
       <c r="V152" s="17"/>
     </row>
-    <row r="153" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B153" s="35"/>
+      <c r="B153" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C153" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D153" s="66">
-        <v>6</v>
-      </c>
-      <c r="E153" s="35"/>
+      <c r="D153" s="65">
+        <v>6</v>
+      </c>
+      <c r="E153" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F153" s="53" t="s">
         <v>177</v>
       </c>
       <c r="G153" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H153" s="134">
+      <c r="H153" s="133">
         <v>-4.2482199999999998E-12</v>
       </c>
-      <c r="I153" s="77"/>
+      <c r="I153" s="76"/>
       <c r="J153" s="17"/>
       <c r="K153" s="17"/>
       <c r="L153" s="17"/>
@@ -8249,18 +8873,22 @@
       <c r="U153" s="17"/>
       <c r="V153" s="17"/>
     </row>
-    <row r="154" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B154" s="35"/>
+      <c r="B154" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C154" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D154" s="66">
-        <v>6</v>
-      </c>
-      <c r="E154" s="35"/>
+      <c r="D154" s="65">
+        <v>6</v>
+      </c>
+      <c r="E154" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F154" s="53" t="s">
         <v>177</v>
       </c>
@@ -8270,7 +8898,7 @@
       <c r="H154" s="29">
         <v>-0.98396817700000005</v>
       </c>
-      <c r="I154" s="77"/>
+      <c r="I154" s="76"/>
       <c r="J154" s="17"/>
       <c r="K154" s="17"/>
       <c r="L154" s="17"/>
@@ -8285,18 +8913,22 @@
       <c r="U154" s="17"/>
       <c r="V154" s="17"/>
     </row>
-    <row r="155" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B155" s="35"/>
+      <c r="B155" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C155" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D155" s="66">
-        <v>6</v>
-      </c>
-      <c r="E155" s="35"/>
+      <c r="D155" s="65">
+        <v>6</v>
+      </c>
+      <c r="E155" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F155" s="53" t="s">
         <v>177</v>
       </c>
@@ -8306,7 +8938,7 @@
       <c r="H155" s="29">
         <v>0.155416209</v>
       </c>
-      <c r="I155" s="77"/>
+      <c r="I155" s="76"/>
       <c r="J155" s="17"/>
       <c r="K155" s="17"/>
       <c r="L155" s="17"/>
@@ -8321,18 +8953,22 @@
       <c r="U155" s="17"/>
       <c r="V155" s="17"/>
     </row>
-    <row r="156" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B156" s="35"/>
+      <c r="B156" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C156" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D156" s="66">
-        <v>6</v>
-      </c>
-      <c r="E156" s="35"/>
+      <c r="D156" s="65">
+        <v>6</v>
+      </c>
+      <c r="E156" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F156" s="53" t="s">
         <v>177</v>
       </c>
@@ -8342,7 +8978,7 @@
       <c r="H156" s="29">
         <v>-1.794E-4</v>
       </c>
-      <c r="I156" s="77"/>
+      <c r="I156" s="76"/>
       <c r="J156" s="17"/>
       <c r="K156" s="17"/>
       <c r="L156" s="17"/>
@@ -8357,28 +8993,32 @@
       <c r="U156" s="17"/>
       <c r="V156" s="17"/>
     </row>
-    <row r="157" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B157" s="35"/>
+      <c r="B157" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C157" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D157" s="66">
-        <v>6</v>
-      </c>
-      <c r="E157" s="35"/>
+      <c r="D157" s="65">
+        <v>6</v>
+      </c>
+      <c r="E157" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F157" s="53" t="s">
         <v>177</v>
       </c>
       <c r="G157" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H157" s="134">
+      <c r="H157" s="133">
         <v>3.7385999999999997E-5</v>
       </c>
-      <c r="I157" s="77"/>
+      <c r="I157" s="76"/>
       <c r="J157" s="17"/>
       <c r="K157" s="17"/>
       <c r="L157" s="17"/>
@@ -8393,28 +9033,32 @@
       <c r="U157" s="17"/>
       <c r="V157" s="17"/>
     </row>
-    <row r="158" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B158" s="35"/>
+      <c r="B158" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C158" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D158" s="66">
-        <v>6</v>
-      </c>
-      <c r="E158" s="35"/>
+      <c r="D158" s="65">
+        <v>6</v>
+      </c>
+      <c r="E158" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F158" s="53" t="s">
         <v>177</v>
       </c>
       <c r="G158" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H158" s="134">
+      <c r="H158" s="133">
         <v>-9.5700000000000003E-8</v>
       </c>
-      <c r="I158" s="77"/>
+      <c r="I158" s="76"/>
       <c r="J158" s="17"/>
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
@@ -8429,18 +9073,22 @@
       <c r="U158" s="17"/>
       <c r="V158" s="17"/>
     </row>
-    <row r="159" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B159" s="35"/>
+      <c r="B159" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C159" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D159" s="66">
-        <v>6</v>
-      </c>
-      <c r="E159" s="35"/>
+      <c r="D159" s="65">
+        <v>6</v>
+      </c>
+      <c r="E159" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="F159" s="53" t="s">
         <v>177</v>
       </c>
@@ -8450,7 +9098,7 @@
       <c r="H159" s="29">
         <v>3.2499999999999998E-6</v>
       </c>
-      <c r="I159" s="77"/>
+      <c r="I159" s="76"/>
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
       <c r="L159" s="17"/>
@@ -8465,11 +9113,11 @@
       <c r="U159" s="17"/>
       <c r="V159" s="17"/>
     </row>
-    <row r="160" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="134"/>
       <c r="C160" s="22"/>
-      <c r="D160" s="67"/>
+      <c r="D160" s="66"/>
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
       <c r="G160" s="25"/>
@@ -8489,28 +9137,32 @@
       <c r="U160" s="17"/>
       <c r="V160" s="17"/>
     </row>
-    <row r="161" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B161" s="35"/>
+      <c r="B161" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C161" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D161" s="66">
-        <v>6</v>
-      </c>
-      <c r="E161" s="35"/>
+      <c r="D161" s="65">
+        <v>6</v>
+      </c>
+      <c r="E161" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="F161" s="20">
         <v>479</v>
       </c>
       <c r="G161" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H161" s="116">
+      <c r="H161" s="115">
         <v>44.659750000000003</v>
       </c>
-      <c r="I161" s="94"/>
+      <c r="I161" s="93"/>
       <c r="J161" s="17"/>
       <c r="K161" s="17"/>
       <c r="L161" s="17"/>
@@ -8525,25 +9177,29 @@
       <c r="U161" s="17"/>
       <c r="V161" s="17"/>
     </row>
-    <row r="162" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B162" s="35"/>
+      <c r="B162" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C162" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D162" s="66">
-        <v>6</v>
-      </c>
-      <c r="E162" s="35"/>
+      <c r="D162" s="65">
+        <v>6</v>
+      </c>
+      <c r="E162" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="F162" s="20">
         <v>479</v>
       </c>
       <c r="G162" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H162" s="101">
+      <c r="H162" s="100">
         <v>-124.09504</v>
       </c>
       <c r="I162" s="31"/>
@@ -8561,25 +9217,29 @@
       <c r="U162" s="17"/>
       <c r="V162" s="17"/>
     </row>
-    <row r="163" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B163" s="35"/>
+      <c r="B163" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C163" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D163" s="66">
-        <v>6</v>
-      </c>
-      <c r="E163" s="35"/>
+      <c r="D163" s="65">
+        <v>6</v>
+      </c>
+      <c r="E163" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="F163" s="20">
         <v>479</v>
       </c>
       <c r="G163" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H163" s="113" t="s">
+      <c r="H163" s="112" t="s">
         <v>175</v>
       </c>
       <c r="I163" s="31"/>
@@ -8597,25 +9257,29 @@
       <c r="U163" s="17"/>
       <c r="V163" s="17"/>
     </row>
-    <row r="164" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B164" s="35"/>
+      <c r="B164" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C164" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D164" s="66">
-        <v>6</v>
-      </c>
-      <c r="E164" s="35"/>
+      <c r="D164" s="65">
+        <v>6</v>
+      </c>
+      <c r="E164" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="F164" s="20">
         <v>479</v>
       </c>
       <c r="G164" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H164" s="113" t="s">
+      <c r="H164" s="112" t="s">
         <v>176</v>
       </c>
       <c r="I164" s="57" t="s">
@@ -8635,15 +9299,15 @@
       <c r="U164" s="20"/>
       <c r="V164" s="20"/>
     </row>
-    <row r="165" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="22"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="134"/>
       <c r="C165" s="22"/>
-      <c r="D165" s="67"/>
-      <c r="E165" s="22"/>
+      <c r="D165" s="66"/>
+      <c r="E165" s="35"/>
       <c r="F165" s="22"/>
       <c r="G165" s="25"/>
-      <c r="H165" s="102"/>
+      <c r="H165" s="101"/>
       <c r="I165" s="31"/>
       <c r="J165" s="17"/>
       <c r="K165" s="17"/>
@@ -8659,15 +9323,15 @@
       <c r="U165" s="17"/>
       <c r="V165" s="17"/>
     </row>
-    <row r="166" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="77"/>
-      <c r="B166" s="77"/>
-      <c r="C166" s="77"/>
-      <c r="D166" s="131"/>
-      <c r="E166" s="77"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="77"/>
-      <c r="H166" s="133"/>
+    <row r="166" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="76"/>
+      <c r="B166" s="134"/>
+      <c r="C166" s="76"/>
+      <c r="D166" s="130"/>
+      <c r="E166" s="76"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="76"/>
+      <c r="H166" s="132"/>
       <c r="I166" s="27" t="s">
         <v>120</v>
       </c>
@@ -8675,14 +9339,14 @@
       <c r="K166" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L166" s="66">
+      <c r="L166" s="65">
         <v>6</v>
       </c>
       <c r="M166" s="25"/>
       <c r="N166" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O166" s="80" t="s">
+      <c r="O166" s="79" t="s">
         <v>77</v>
       </c>
       <c r="IO166"/>
@@ -8694,15 +9358,15 @@
       <c r="IU166"/>
       <c r="IV166"/>
     </row>
-    <row r="167" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="77"/>
-      <c r="B167" s="77"/>
-      <c r="C167" s="77"/>
-      <c r="D167" s="131"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="77"/>
-      <c r="G167" s="77"/>
-      <c r="H167" s="133"/>
+    <row r="167" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="76"/>
+      <c r="B167" s="134"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="130"/>
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="76"/>
+      <c r="H167" s="132"/>
       <c r="I167" s="27" t="s">
         <v>120</v>
       </c>
@@ -8710,12 +9374,12 @@
       <c r="K167" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L167" s="66">
+      <c r="L167" s="65">
         <v>6</v>
       </c>
       <c r="M167" s="25"/>
       <c r="N167" s="28"/>
-      <c r="O167" s="80" t="s">
+      <c r="O167" s="79" t="s">
         <v>78</v>
       </c>
       <c r="IO167"/>
@@ -8727,15 +9391,15 @@
       <c r="IU167"/>
       <c r="IV167"/>
     </row>
-    <row r="168" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="77"/>
-      <c r="B168" s="77"/>
-      <c r="C168" s="77"/>
-      <c r="D168" s="131"/>
-      <c r="E168" s="77"/>
-      <c r="F168" s="77"/>
-      <c r="G168" s="77"/>
-      <c r="H168" s="133"/>
+    <row r="168" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="76"/>
+      <c r="B168" s="134"/>
+      <c r="C168" s="76"/>
+      <c r="D168" s="130"/>
+      <c r="E168" s="76"/>
+      <c r="F168" s="76"/>
+      <c r="G168" s="76"/>
+      <c r="H168" s="132"/>
       <c r="I168" s="27" t="s">
         <v>120</v>
       </c>
@@ -8743,12 +9407,12 @@
       <c r="K168" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L168" s="66">
+      <c r="L168" s="65">
         <v>6</v>
       </c>
       <c r="M168" s="25"/>
       <c r="N168" s="28"/>
-      <c r="O168" s="80" t="s">
+      <c r="O168" s="79" t="s">
         <v>79</v>
       </c>
       <c r="IO168"/>
@@ -8760,15 +9424,15 @@
       <c r="IU168"/>
       <c r="IV168"/>
     </row>
-    <row r="169" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="77"/>
-      <c r="B169" s="77"/>
-      <c r="C169" s="77"/>
-      <c r="D169" s="131"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="77"/>
-      <c r="G169" s="77"/>
-      <c r="H169" s="133"/>
+    <row r="169" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="76"/>
+      <c r="B169" s="134"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="130"/>
+      <c r="E169" s="76"/>
+      <c r="F169" s="76"/>
+      <c r="G169" s="76"/>
+      <c r="H169" s="132"/>
       <c r="I169" s="27" t="s">
         <v>120</v>
       </c>
@@ -8776,12 +9440,12 @@
       <c r="K169" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L169" s="66">
+      <c r="L169" s="65">
         <v>6</v>
       </c>
       <c r="M169" s="25"/>
       <c r="N169" s="28"/>
-      <c r="O169" s="80" t="s">
+      <c r="O169" s="79" t="s">
         <v>80</v>
       </c>
       <c r="IO169"/>
@@ -8793,15 +9457,15 @@
       <c r="IU169"/>
       <c r="IV169"/>
     </row>
-    <row r="170" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="77"/>
-      <c r="B170" s="77"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="131"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="77"/>
-      <c r="H170" s="133"/>
+    <row r="170" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="76"/>
+      <c r="B170" s="134"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="130"/>
+      <c r="E170" s="76"/>
+      <c r="F170" s="76"/>
+      <c r="G170" s="76"/>
+      <c r="H170" s="132"/>
       <c r="I170" s="27" t="s">
         <v>120</v>
       </c>
@@ -8809,12 +9473,12 @@
       <c r="K170" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L170" s="66">
+      <c r="L170" s="65">
         <v>6</v>
       </c>
       <c r="M170" s="25"/>
       <c r="N170" s="28"/>
-      <c r="O170" s="80" t="s">
+      <c r="O170" s="79" t="s">
         <v>81</v>
       </c>
       <c r="IO170"/>
@@ -8826,15 +9490,15 @@
       <c r="IU170"/>
       <c r="IV170"/>
     </row>
-    <row r="171" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="77"/>
-      <c r="B171" s="77"/>
-      <c r="C171" s="77"/>
-      <c r="D171" s="131"/>
-      <c r="E171" s="77"/>
-      <c r="F171" s="77"/>
-      <c r="G171" s="77"/>
-      <c r="H171" s="133"/>
+    <row r="171" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="76"/>
+      <c r="B171" s="134"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="130"/>
+      <c r="E171" s="76"/>
+      <c r="F171" s="76"/>
+      <c r="G171" s="76"/>
+      <c r="H171" s="132"/>
       <c r="I171" s="27" t="s">
         <v>120</v>
       </c>
@@ -8842,12 +9506,12 @@
       <c r="K171" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L171" s="66">
+      <c r="L171" s="65">
         <v>6</v>
       </c>
       <c r="M171" s="25"/>
       <c r="N171" s="28"/>
-      <c r="O171" s="80" t="s">
+      <c r="O171" s="79" t="s">
         <v>82</v>
       </c>
       <c r="IO171"/>
@@ -8859,15 +9523,15 @@
       <c r="IU171"/>
       <c r="IV171"/>
     </row>
-    <row r="172" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="77"/>
-      <c r="B172" s="77"/>
-      <c r="C172" s="77"/>
-      <c r="D172" s="131"/>
-      <c r="E172" s="77"/>
-      <c r="F172" s="77"/>
-      <c r="G172" s="77"/>
-      <c r="H172" s="133"/>
+    <row r="172" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="76"/>
+      <c r="B172" s="134"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="130"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="76"/>
+      <c r="H172" s="132"/>
       <c r="I172" s="27" t="s">
         <v>120</v>
       </c>
@@ -8875,12 +9539,12 @@
       <c r="K172" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L172" s="66">
+      <c r="L172" s="65">
         <v>6</v>
       </c>
       <c r="M172" s="25"/>
       <c r="N172" s="28"/>
-      <c r="O172" s="80" t="s">
+      <c r="O172" s="79" t="s">
         <v>83</v>
       </c>
       <c r="IO172"/>
@@ -8892,15 +9556,15 @@
       <c r="IU172"/>
       <c r="IV172"/>
     </row>
-    <row r="173" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="77"/>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="131"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="133"/>
+    <row r="173" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="76"/>
+      <c r="B173" s="134"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="130"/>
+      <c r="E173" s="76"/>
+      <c r="F173" s="76"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="132"/>
       <c r="I173" s="27" t="s">
         <v>120</v>
       </c>
@@ -8908,12 +9572,12 @@
       <c r="K173" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="L173" s="66">
+      <c r="L173" s="65">
         <v>6</v>
       </c>
       <c r="M173" s="25"/>
       <c r="N173" s="28"/>
-      <c r="O173" s="80" t="s">
+      <c r="O173" s="79" t="s">
         <v>84</v>
       </c>
       <c r="IO173"/>
@@ -8925,15 +9589,15 @@
       <c r="IU173"/>
       <c r="IV173"/>
     </row>
-    <row r="174" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
+      <c r="B174" s="134"/>
       <c r="C174" s="22"/>
-      <c r="D174" s="67"/>
+      <c r="D174" s="66"/>
       <c r="E174" s="22"/>
       <c r="F174" s="22"/>
       <c r="G174" s="25"/>
-      <c r="H174" s="102"/>
+      <c r="H174" s="101"/>
       <c r="I174" s="31"/>
       <c r="J174" s="17"/>
       <c r="K174" s="17"/>
@@ -8949,25 +9613,29 @@
       <c r="U174" s="17"/>
       <c r="V174" s="17"/>
     </row>
-    <row r="175" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B175" s="35"/>
+      <c r="B175" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C175" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D175" s="66">
-        <v>6</v>
-      </c>
-      <c r="E175" s="35"/>
+      <c r="D175" s="65">
+        <v>6</v>
+      </c>
+      <c r="E175" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="F175" s="53" t="s">
         <v>178</v>
       </c>
       <c r="G175" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H175" s="98">
+      <c r="H175" s="97">
         <v>-8.5000000000000006E-3</v>
       </c>
       <c r="I175" s="31"/>
@@ -8985,25 +9653,29 @@
       <c r="U175" s="17"/>
       <c r="V175" s="17"/>
     </row>
-    <row r="176" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B176" s="35"/>
+      <c r="B176" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C176" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D176" s="66">
-        <v>6</v>
-      </c>
-      <c r="E176" s="35"/>
+      <c r="D176" s="65">
+        <v>6</v>
+      </c>
+      <c r="E176" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="F176" s="53" t="s">
         <v>178</v>
       </c>
       <c r="G176" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H176" s="98">
+      <c r="H176" s="97">
         <v>0.90549999999999997</v>
       </c>
       <c r="I176" s="31"/>
@@ -9021,25 +9693,29 @@
       <c r="U176" s="17"/>
       <c r="V176" s="17"/>
     </row>
-    <row r="177" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B177" s="35"/>
+      <c r="B177" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C177" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D177" s="66">
-        <v>6</v>
-      </c>
-      <c r="E177" s="35"/>
+      <c r="D177" s="65">
+        <v>6</v>
+      </c>
+      <c r="E177" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="F177" s="53" t="s">
         <v>178</v>
       </c>
       <c r="G177" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H177" s="98">
+      <c r="H177" s="97">
         <v>-1.9297</v>
       </c>
       <c r="I177" s="31"/>
@@ -9057,28 +9733,32 @@
       <c r="U177" s="17"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B178" s="35"/>
+      <c r="B178" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C178" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D178" s="66">
-        <v>6</v>
-      </c>
-      <c r="E178" s="35"/>
+      <c r="D178" s="65">
+        <v>6</v>
+      </c>
+      <c r="E178" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="F178" s="53" t="s">
         <v>178</v>
       </c>
       <c r="G178" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H178" s="98">
+      <c r="H178" s="97">
         <v>15.1044</v>
       </c>
-      <c r="I178" s="88"/>
+      <c r="I178" s="87"/>
       <c r="J178" s="17"/>
       <c r="K178" s="17"/>
       <c r="L178" s="17"/>
@@ -9093,28 +9773,32 @@
       <c r="U178" s="17"/>
       <c r="V178" s="17"/>
     </row>
-    <row r="179" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B179" s="35"/>
+      <c r="B179" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C179" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D179" s="66">
-        <v>6</v>
-      </c>
-      <c r="E179" s="35"/>
+      <c r="D179" s="65">
+        <v>6</v>
+      </c>
+      <c r="E179" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="F179" s="53" t="s">
         <v>178</v>
       </c>
       <c r="G179" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H179" s="106">
+      <c r="H179" s="105">
         <v>19706</v>
       </c>
-      <c r="I179" s="89" t="s">
+      <c r="I179" s="88" t="s">
         <v>91</v>
       </c>
       <c r="J179" s="38"/>
@@ -9131,28 +9815,32 @@
       <c r="U179" s="17"/>
       <c r="V179" s="17"/>
     </row>
-    <row r="180" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B180" s="35"/>
+      <c r="B180" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C180" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D180" s="66">
-        <v>6</v>
-      </c>
-      <c r="E180" s="35"/>
+      <c r="D180" s="65">
+        <v>6</v>
+      </c>
+      <c r="E180" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="F180" s="53" t="s">
         <v>178</v>
       </c>
       <c r="G180" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H180" s="106">
+      <c r="H180" s="105">
         <v>34</v>
       </c>
-      <c r="I180" s="90" t="s">
+      <c r="I180" s="89" t="s">
         <v>93</v>
       </c>
       <c r="J180" s="38"/>
@@ -9169,28 +9857,32 @@
       <c r="U180" s="17"/>
       <c r="V180" s="17"/>
     </row>
-    <row r="181" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B181" s="35"/>
+      <c r="B181" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C181" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D181" s="66">
-        <v>6</v>
-      </c>
-      <c r="E181" s="35"/>
+      <c r="D181" s="65">
+        <v>6</v>
+      </c>
+      <c r="E181" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="F181" s="53" t="s">
         <v>178</v>
       </c>
       <c r="G181" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H181" s="106">
+      <c r="H181" s="105">
         <v>3073</v>
       </c>
-      <c r="I181" s="91"/>
+      <c r="I181" s="90"/>
       <c r="J181" s="38"/>
       <c r="K181" s="17"/>
       <c r="L181" s="17"/>
@@ -9205,28 +9897,32 @@
       <c r="U181" s="17"/>
       <c r="V181" s="17"/>
     </row>
-    <row r="182" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B182" s="35"/>
+      <c r="B182" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C182" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D182" s="66">
-        <v>6</v>
-      </c>
-      <c r="E182" s="35"/>
+      <c r="D182" s="65">
+        <v>6</v>
+      </c>
+      <c r="E182" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="F182" s="53" t="s">
         <v>178</v>
       </c>
       <c r="G182" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H182" s="106">
+      <c r="H182" s="105">
         <v>44327</v>
       </c>
-      <c r="I182" s="92"/>
+      <c r="I182" s="91"/>
       <c r="J182" s="38"/>
       <c r="K182" s="17"/>
       <c r="L182" s="17"/>
@@ -9241,16 +9937,16 @@
       <c r="U182" s="17"/>
       <c r="V182" s="17"/>
     </row>
-    <row r="183" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="22"/>
-      <c r="B183" s="22"/>
+      <c r="B183" s="134"/>
       <c r="C183" s="22"/>
-      <c r="D183" s="67"/>
+      <c r="D183" s="66"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
       <c r="G183" s="25"/>
-      <c r="H183" s="100"/>
-      <c r="I183" s="93"/>
+      <c r="H183" s="99"/>
+      <c r="I183" s="92"/>
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
       <c r="L183" s="17"/>
@@ -9265,25 +9961,29 @@
       <c r="U183" s="17"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B184" s="35"/>
+      <c r="B184" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C184" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D184" s="66">
-        <v>6</v>
-      </c>
-      <c r="E184" s="35"/>
+      <c r="D184" s="65">
+        <v>6</v>
+      </c>
+      <c r="E184" s="135" t="s">
+        <v>212</v>
+      </c>
       <c r="F184" s="53" t="s">
         <v>179</v>
       </c>
       <c r="G184" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H184" s="98">
+      <c r="H184" s="97">
         <v>17372</v>
       </c>
       <c r="I184" s="31"/>
@@ -9301,25 +10001,29 @@
       <c r="U184" s="22"/>
       <c r="V184" s="22"/>
     </row>
-    <row r="185" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B185" s="35"/>
+      <c r="B185" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C185" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D185" s="66">
-        <v>6</v>
-      </c>
-      <c r="E185" s="35"/>
+      <c r="D185" s="65">
+        <v>6</v>
+      </c>
+      <c r="E185" s="135" t="s">
+        <v>212</v>
+      </c>
       <c r="F185" s="53" t="s">
         <v>179</v>
       </c>
       <c r="G185" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H185" s="98">
+      <c r="H185" s="97">
         <v>94.1</v>
       </c>
       <c r="I185" s="31"/>
@@ -9337,25 +10041,29 @@
       <c r="U185" s="22"/>
       <c r="V185" s="22"/>
     </row>
-    <row r="186" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B186" s="35"/>
+      <c r="B186" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C186" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D186" s="66">
-        <v>6</v>
-      </c>
-      <c r="E186" s="35"/>
+      <c r="D186" s="65">
+        <v>6</v>
+      </c>
+      <c r="E186" s="135" t="s">
+        <v>212</v>
+      </c>
       <c r="F186" s="53" t="s">
         <v>179</v>
       </c>
       <c r="G186" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H186" s="98">
+      <c r="H186" s="97">
         <v>2284.1</v>
       </c>
       <c r="I186" s="31"/>
@@ -9373,25 +10081,29 @@
       <c r="U186" s="22"/>
       <c r="V186" s="22"/>
     </row>
-    <row r="187" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B187" s="35"/>
+      <c r="B187" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C187" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D187" s="66">
-        <v>6</v>
-      </c>
-      <c r="E187" s="35"/>
+      <c r="D187" s="65">
+        <v>6</v>
+      </c>
+      <c r="E187" s="135" t="s">
+        <v>212</v>
+      </c>
       <c r="F187" s="53" t="s">
         <v>179</v>
       </c>
       <c r="G187" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H187" s="98">
+      <c r="H187" s="97">
         <v>38676.5</v>
       </c>
       <c r="I187" s="31"/>
@@ -9409,25 +10121,29 @@
       <c r="U187" s="22"/>
       <c r="V187" s="22"/>
     </row>
-    <row r="188" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B188" s="35"/>
+      <c r="B188" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C188" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D188" s="66">
-        <v>6</v>
-      </c>
-      <c r="E188" s="35"/>
+      <c r="D188" s="65">
+        <v>6</v>
+      </c>
+      <c r="E188" s="135" t="s">
+        <v>212</v>
+      </c>
       <c r="F188" s="53" t="s">
         <v>179</v>
       </c>
       <c r="G188" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H188" s="107">
+      <c r="H188" s="106">
         <v>0</v>
       </c>
       <c r="I188" s="31"/>
@@ -9445,25 +10161,29 @@
       <c r="U188" s="22"/>
       <c r="V188" s="22"/>
     </row>
-    <row r="189" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B189" s="35"/>
+      <c r="B189" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C189" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="D189" s="69">
-        <v>6</v>
-      </c>
-      <c r="E189" s="35"/>
+      <c r="D189" s="68">
+        <v>6</v>
+      </c>
+      <c r="E189" s="135" t="s">
+        <v>212</v>
+      </c>
       <c r="F189" s="53" t="s">
         <v>179</v>
       </c>
       <c r="G189" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H189" s="107">
+      <c r="H189" s="106">
         <v>1</v>
       </c>
       <c r="I189" s="41"/>
@@ -9481,25 +10201,29 @@
       <c r="U189" s="22"/>
       <c r="V189" s="22"/>
     </row>
-    <row r="190" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B190" s="43"/>
+      <c r="B190" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C190" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D190" s="70">
-        <v>6</v>
-      </c>
-      <c r="E190" s="43"/>
-      <c r="F190" s="115" t="s">
+      <c r="D190" s="69">
+        <v>6</v>
+      </c>
+      <c r="E190" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="F190" s="114" t="s">
         <v>179</v>
       </c>
       <c r="G190" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H190" s="105">
+      <c r="H190" s="104">
         <v>35</v>
       </c>
       <c r="I190" s="44" t="s">
@@ -9519,16 +10243,16 @@
       <c r="U190" s="17"/>
       <c r="V190" s="17"/>
     </row>
-    <row r="191" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="36"/>
-      <c r="B191" s="22"/>
+      <c r="B191" s="134"/>
       <c r="C191" s="36"/>
-      <c r="D191" s="71"/>
+      <c r="D191" s="70"/>
       <c r="E191" s="22"/>
       <c r="F191" s="36"/>
-      <c r="G191" s="83"/>
-      <c r="H191" s="102"/>
-      <c r="I191" s="94"/>
+      <c r="G191" s="82"/>
+      <c r="H191" s="101"/>
+      <c r="I191" s="93"/>
       <c r="J191" s="22"/>
       <c r="K191" s="22"/>
       <c r="L191" s="22"/>
@@ -9543,26 +10267,30 @@
       <c r="U191" s="22"/>
       <c r="V191" s="22"/>
     </row>
-    <row r="192" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B192" s="35"/>
+      <c r="B192" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C192" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D192" s="66">
-        <v>6</v>
-      </c>
-      <c r="E192" s="35"/>
-      <c r="F192" s="112" t="s">
-        <v>180</v>
+      <c r="D192" s="65">
+        <v>6</v>
+      </c>
+      <c r="E192" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F192" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G192" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="H192" s="103" t="s">
-        <v>181</v>
+      <c r="H192" s="102" t="s">
+        <v>180</v>
       </c>
       <c r="I192" s="24"/>
       <c r="J192" s="17"/>
@@ -9579,26 +10307,30 @@
       <c r="U192" s="17"/>
       <c r="V192" s="17"/>
     </row>
-    <row r="193" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B193" s="35"/>
+      <c r="B193" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C193" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D193" s="66">
-        <v>6</v>
-      </c>
-      <c r="E193" s="35"/>
-      <c r="F193" s="112" t="s">
-        <v>180</v>
+      <c r="D193" s="65">
+        <v>6</v>
+      </c>
+      <c r="E193" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F193" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G193" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H193" s="103" t="s">
-        <v>182</v>
+      <c r="H193" s="102" t="s">
+        <v>181</v>
       </c>
       <c r="I193" s="24"/>
       <c r="J193" s="17"/>
@@ -9615,26 +10347,30 @@
       <c r="U193" s="17"/>
       <c r="V193" s="17"/>
     </row>
-    <row r="194" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B194" s="35"/>
+      <c r="B194" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C194" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D194" s="66">
-        <v>6</v>
-      </c>
-      <c r="E194" s="35"/>
-      <c r="F194" s="112" t="s">
-        <v>180</v>
+      <c r="D194" s="65">
+        <v>6</v>
+      </c>
+      <c r="E194" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F194" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G194" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="H194" s="103" t="s">
-        <v>183</v>
+      <c r="H194" s="102" t="s">
+        <v>182</v>
       </c>
       <c r="I194" s="51"/>
       <c r="J194" s="17"/>
@@ -9651,26 +10387,30 @@
       <c r="U194" s="17"/>
       <c r="V194" s="17"/>
     </row>
-    <row r="195" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B195" s="35"/>
+      <c r="B195" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C195" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D195" s="66">
-        <v>6</v>
-      </c>
-      <c r="E195" s="35"/>
-      <c r="F195" s="112" t="s">
-        <v>180</v>
+      <c r="D195" s="65">
+        <v>6</v>
+      </c>
+      <c r="E195" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F195" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G195" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="H195" s="103" t="s">
-        <v>184</v>
+      <c r="H195" s="102" t="s">
+        <v>183</v>
       </c>
       <c r="I195" s="51"/>
       <c r="J195" s="17"/>
@@ -9687,25 +10427,29 @@
       <c r="U195" s="17"/>
       <c r="V195" s="17"/>
     </row>
-    <row r="196" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B196" s="35"/>
+      <c r="B196" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C196" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D196" s="66">
-        <v>6</v>
-      </c>
-      <c r="E196" s="35"/>
-      <c r="F196" s="112" t="s">
-        <v>180</v>
+      <c r="D196" s="65">
+        <v>6</v>
+      </c>
+      <c r="E196" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F196" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G196" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="H196" s="103" t="s">
+      <c r="H196" s="102" t="s">
         <v>129</v>
       </c>
       <c r="I196" s="31"/>
@@ -9723,25 +10467,29 @@
       <c r="U196" s="17"/>
       <c r="V196" s="17"/>
     </row>
-    <row r="197" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B197" s="35"/>
+      <c r="B197" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C197" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D197" s="66">
-        <v>6</v>
-      </c>
-      <c r="E197" s="35"/>
-      <c r="F197" s="112" t="s">
-        <v>180</v>
+      <c r="D197" s="65">
+        <v>6</v>
+      </c>
+      <c r="E197" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F197" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G197" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H197" s="103" t="s">
+      <c r="H197" s="102" t="s">
         <v>129</v>
       </c>
       <c r="I197" s="24" t="s">
@@ -9761,26 +10509,30 @@
       <c r="U197" s="17"/>
       <c r="V197" s="17"/>
     </row>
-    <row r="198" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="35"/>
+      <c r="B198" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C198" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D198" s="66">
-        <v>6</v>
-      </c>
-      <c r="E198" s="35"/>
-      <c r="F198" s="112" t="s">
-        <v>180</v>
+      <c r="D198" s="65">
+        <v>6</v>
+      </c>
+      <c r="E198" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F198" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G198" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H198" s="103" t="s">
-        <v>185</v>
+      <c r="H198" s="102" t="s">
+        <v>184</v>
       </c>
       <c r="I198" s="24" t="s">
         <v>132</v>
@@ -9799,25 +10551,29 @@
       <c r="U198" s="17"/>
       <c r="V198" s="17"/>
     </row>
-    <row r="199" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B199" s="35"/>
+      <c r="B199" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C199" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D199" s="66">
-        <v>6</v>
-      </c>
-      <c r="E199" s="35"/>
-      <c r="F199" s="112" t="s">
-        <v>180</v>
+      <c r="D199" s="65">
+        <v>6</v>
+      </c>
+      <c r="E199" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F199" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G199" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="H199" s="103" t="s">
+      <c r="H199" s="102" t="s">
         <v>134</v>
       </c>
       <c r="I199" s="24" t="s">
@@ -9837,26 +10593,30 @@
       <c r="U199" s="17"/>
       <c r="V199" s="17"/>
     </row>
-    <row r="200" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B200" s="35"/>
+      <c r="B200" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C200" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D200" s="66">
-        <v>6</v>
-      </c>
-      <c r="E200" s="35"/>
-      <c r="F200" s="112" t="s">
-        <v>180</v>
+      <c r="D200" s="65">
+        <v>6</v>
+      </c>
+      <c r="E200" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F200" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G200" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H200" s="103" t="s">
-        <v>186</v>
+      <c r="H200" s="102" t="s">
+        <v>185</v>
       </c>
       <c r="I200" s="31"/>
       <c r="J200" s="17"/>
@@ -9873,26 +10633,30 @@
       <c r="U200" s="17"/>
       <c r="V200" s="17"/>
     </row>
-    <row r="201" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B201" s="35"/>
+      <c r="B201" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C201" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D201" s="66">
-        <v>6</v>
-      </c>
-      <c r="E201" s="35"/>
-      <c r="F201" s="112" t="s">
-        <v>180</v>
+      <c r="D201" s="65">
+        <v>6</v>
+      </c>
+      <c r="E201" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F201" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G201" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="H201" s="103" t="s">
-        <v>187</v>
+      <c r="H201" s="102" t="s">
+        <v>186</v>
       </c>
       <c r="I201" s="31"/>
       <c r="J201" s="17"/>
@@ -9909,26 +10673,30 @@
       <c r="U201" s="17"/>
       <c r="V201" s="17"/>
     </row>
-    <row r="202" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B202" s="35"/>
+      <c r="B202" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C202" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D202" s="66">
-        <v>6</v>
-      </c>
-      <c r="E202" s="35"/>
-      <c r="F202" s="112" t="s">
-        <v>180</v>
+      <c r="D202" s="65">
+        <v>6</v>
+      </c>
+      <c r="E202" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F202" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G202" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H202" s="103" t="s">
-        <v>188</v>
+      <c r="H202" s="102" t="s">
+        <v>187</v>
       </c>
       <c r="I202" s="31"/>
       <c r="J202" s="17"/>
@@ -9945,26 +10713,30 @@
       <c r="U202" s="17"/>
       <c r="V202" s="17"/>
     </row>
-    <row r="203" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B203" s="35"/>
+      <c r="B203" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C203" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D203" s="66">
-        <v>6</v>
-      </c>
-      <c r="E203" s="35"/>
-      <c r="F203" s="112" t="s">
-        <v>180</v>
+      <c r="D203" s="65">
+        <v>6</v>
+      </c>
+      <c r="E203" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F203" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G203" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H203" s="103" t="s">
-        <v>189</v>
+      <c r="H203" s="102" t="s">
+        <v>188</v>
       </c>
       <c r="I203" s="31"/>
       <c r="J203" s="17"/>
@@ -9981,26 +10753,30 @@
       <c r="U203" s="17"/>
       <c r="V203" s="17"/>
     </row>
-    <row r="204" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B204" s="35"/>
+      <c r="B204" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C204" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D204" s="66">
-        <v>6</v>
-      </c>
-      <c r="E204" s="35"/>
-      <c r="F204" s="112" t="s">
-        <v>180</v>
+      <c r="D204" s="65">
+        <v>6</v>
+      </c>
+      <c r="E204" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F204" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G204" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="H204" s="103" t="s">
-        <v>190</v>
+      <c r="H204" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="I204" s="31"/>
       <c r="J204" s="17"/>
@@ -10017,26 +10793,30 @@
       <c r="U204" s="17"/>
       <c r="V204" s="17"/>
     </row>
-    <row r="205" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B205" s="35"/>
+      <c r="B205" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C205" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D205" s="66">
-        <v>6</v>
-      </c>
-      <c r="E205" s="35"/>
-      <c r="F205" s="112" t="s">
-        <v>180</v>
+      <c r="D205" s="65">
+        <v>6</v>
+      </c>
+      <c r="E205" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F205" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G205" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="H205" s="103" t="s">
-        <v>191</v>
+      <c r="H205" s="102" t="s">
+        <v>190</v>
       </c>
       <c r="I205" s="31"/>
       <c r="J205" s="17"/>
@@ -10053,26 +10833,30 @@
       <c r="U205" s="17"/>
       <c r="V205" s="17"/>
     </row>
-    <row r="206" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B206" s="35"/>
+      <c r="B206" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C206" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D206" s="66">
-        <v>6</v>
-      </c>
-      <c r="E206" s="35"/>
-      <c r="F206" s="112" t="s">
-        <v>180</v>
+      <c r="D206" s="65">
+        <v>6</v>
+      </c>
+      <c r="E206" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F206" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G206" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H206" s="103" t="s">
-        <v>192</v>
+      <c r="H206" s="102" t="s">
+        <v>191</v>
       </c>
       <c r="I206" s="31"/>
       <c r="J206" s="17"/>
@@ -10089,25 +10873,29 @@
       <c r="U206" s="17"/>
       <c r="V206" s="17"/>
     </row>
-    <row r="207" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B207" s="35"/>
+      <c r="B207" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C207" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D207" s="66">
-        <v>6</v>
-      </c>
-      <c r="E207" s="35"/>
-      <c r="F207" s="112" t="s">
-        <v>180</v>
+      <c r="D207" s="65">
+        <v>6</v>
+      </c>
+      <c r="E207" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F207" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G207" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="H207" s="103" t="s">
+      <c r="H207" s="102" t="s">
         <v>129</v>
       </c>
       <c r="I207" s="31"/>
@@ -10125,25 +10913,29 @@
       <c r="U207" s="17"/>
       <c r="V207" s="17"/>
     </row>
-    <row r="208" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B208" s="35"/>
+      <c r="B208" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C208" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D208" s="66">
-        <v>6</v>
-      </c>
-      <c r="E208" s="35"/>
-      <c r="F208" s="112" t="s">
-        <v>180</v>
+      <c r="D208" s="65">
+        <v>6</v>
+      </c>
+      <c r="E208" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F208" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G208" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H208" s="103" t="s">
+      <c r="H208" s="102" t="s">
         <v>144</v>
       </c>
       <c r="I208" s="31"/>
@@ -10161,25 +10953,29 @@
       <c r="U208" s="17"/>
       <c r="V208" s="17"/>
     </row>
-    <row r="209" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B209" s="35"/>
+      <c r="B209" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C209" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D209" s="66">
-        <v>6</v>
-      </c>
-      <c r="E209" s="35"/>
-      <c r="F209" s="112" t="s">
-        <v>180</v>
+      <c r="D209" s="65">
+        <v>6</v>
+      </c>
+      <c r="E209" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F209" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="G209" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H209" s="103" t="s">
+      <c r="H209" s="102" t="s">
         <v>146</v>
       </c>
       <c r="I209" s="31"/>
@@ -10197,15 +10993,15 @@
       <c r="U209" s="17"/>
       <c r="V209" s="17"/>
     </row>
-    <row r="210" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="22"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="134"/>
       <c r="C210" s="22"/>
-      <c r="D210" s="67"/>
+      <c r="D210" s="66"/>
       <c r="E210" s="22"/>
       <c r="F210" s="22"/>
       <c r="G210" s="25"/>
-      <c r="H210" s="108"/>
+      <c r="H210" s="107"/>
       <c r="I210" s="31"/>
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
@@ -10221,25 +11017,29 @@
       <c r="U210" s="17"/>
       <c r="V210" s="17"/>
     </row>
-    <row r="211" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B211" s="35"/>
+      <c r="B211" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C211" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D211" s="66">
-        <v>6</v>
-      </c>
-      <c r="E211" s="35"/>
+      <c r="D211" s="65">
+        <v>6</v>
+      </c>
+      <c r="E211" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="F211" s="20">
         <v>12604</v>
       </c>
       <c r="G211" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H211" s="101">
+      <c r="H211" s="100">
         <v>44.659750000000003</v>
       </c>
       <c r="I211" s="31"/>
@@ -10257,25 +11057,29 @@
       <c r="U211" s="17"/>
       <c r="V211" s="17"/>
     </row>
-    <row r="212" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B212" s="35"/>
+      <c r="B212" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C212" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D212" s="66">
-        <v>6</v>
-      </c>
-      <c r="E212" s="35"/>
+      <c r="D212" s="65">
+        <v>6</v>
+      </c>
+      <c r="E212" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="F212" s="20">
         <v>12604</v>
       </c>
       <c r="G212" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H212" s="101">
+      <c r="H212" s="100">
         <v>-124.09504</v>
       </c>
       <c r="I212" s="31"/>
@@ -10293,15 +11097,15 @@
       <c r="U212" s="17"/>
       <c r="V212" s="17"/>
     </row>
-    <row r="213" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="22"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="134"/>
       <c r="C213" s="22"/>
-      <c r="D213" s="67"/>
+      <c r="D213" s="66"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
       <c r="G213" s="25"/>
-      <c r="H213" s="102"/>
+      <c r="H213" s="101"/>
       <c r="I213" s="31"/>
       <c r="J213" s="17"/>
       <c r="K213" s="17"/>
@@ -10317,25 +11121,29 @@
       <c r="U213" s="17"/>
       <c r="V213" s="17"/>
     </row>
-    <row r="214" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B214" s="35"/>
+      <c r="B214" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C214" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D214" s="66">
-        <v>6</v>
-      </c>
-      <c r="E214" s="35"/>
+      <c r="D214" s="65">
+        <v>6</v>
+      </c>
+      <c r="E214" s="135" t="s">
+        <v>216</v>
+      </c>
       <c r="F214" s="20">
         <v>55096</v>
       </c>
       <c r="G214" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H214" s="98"/>
+      <c r="H214" s="97"/>
       <c r="I214" s="48"/>
       <c r="J214" s="20"/>
       <c r="K214" s="20"/>
@@ -10351,15 +11159,15 @@
       <c r="U214" s="20"/>
       <c r="V214" s="20"/>
     </row>
-    <row r="215" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="22"/>
-      <c r="B215" s="22"/>
+      <c r="B215" s="134"/>
       <c r="C215" s="22"/>
-      <c r="D215" s="67"/>
+      <c r="D215" s="66"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
       <c r="G215" s="25"/>
-      <c r="H215" s="100"/>
+      <c r="H215" s="99"/>
       <c r="I215" s="48"/>
       <c r="J215" s="17"/>
       <c r="K215" s="17"/>
@@ -10375,15 +11183,15 @@
       <c r="U215" s="17"/>
       <c r="V215" s="17"/>
     </row>
-    <row r="216" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="22"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="134"/>
       <c r="C216" s="22"/>
-      <c r="D216" s="67"/>
+      <c r="D216" s="66"/>
       <c r="E216" s="22"/>
       <c r="F216" s="22"/>
       <c r="G216" s="30"/>
-      <c r="H216" s="100"/>
+      <c r="H216" s="99"/>
       <c r="I216" s="48"/>
       <c r="J216" s="22"/>
       <c r="K216" s="17"/>
@@ -10399,15 +11207,15 @@
       <c r="U216" s="17"/>
       <c r="V216" s="17"/>
     </row>
-    <row r="217" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="22"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="134"/>
       <c r="C217" s="22"/>
-      <c r="D217" s="67"/>
+      <c r="D217" s="66"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
       <c r="G217" s="25"/>
-      <c r="H217" s="100"/>
+      <c r="H217" s="99"/>
       <c r="I217" s="48"/>
       <c r="J217" s="17"/>
       <c r="K217" s="17"/>
@@ -10423,15 +11231,15 @@
       <c r="U217" s="17"/>
       <c r="V217" s="17"/>
     </row>
-    <row r="218" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="22"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="134"/>
       <c r="C218" s="22"/>
-      <c r="D218" s="67"/>
+      <c r="D218" s="66"/>
       <c r="E218" s="22"/>
       <c r="F218" s="22"/>
       <c r="G218" s="30"/>
-      <c r="H218" s="100"/>
+      <c r="H218" s="99"/>
       <c r="I218" s="48"/>
       <c r="J218" s="22"/>
       <c r="K218" s="17"/>
@@ -10447,26 +11255,28 @@
       <c r="U218" s="17"/>
       <c r="V218" s="17"/>
     </row>
-    <row r="219" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B219" s="35"/>
+      <c r="B219" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C219" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D219" s="66">
+      <c r="D219" s="65">
         <v>6</v>
       </c>
       <c r="E219" s="35"/>
-      <c r="F219" s="121" t="s">
-        <v>193</v>
-      </c>
-      <c r="G219" s="122" t="s">
+      <c r="F219" s="120" t="s">
+        <v>192</v>
+      </c>
+      <c r="G219" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="H219" s="123"/>
-      <c r="I219" s="124" t="s">
+      <c r="H219" s="122"/>
+      <c r="I219" s="123" t="s">
         <v>150</v>
       </c>
       <c r="J219" s="17"/>
@@ -10483,26 +11293,28 @@
       <c r="U219" s="17"/>
       <c r="V219" s="17"/>
     </row>
-    <row r="220" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B220" s="35"/>
+      <c r="B220" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C220" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D220" s="66">
+      <c r="D220" s="65">
         <v>6</v>
       </c>
       <c r="E220" s="35"/>
-      <c r="F220" s="121" t="s">
-        <v>193</v>
-      </c>
-      <c r="G220" s="122" t="s">
+      <c r="F220" s="120" t="s">
+        <v>192</v>
+      </c>
+      <c r="G220" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="H220" s="123"/>
-      <c r="I220" s="124" t="s">
+      <c r="H220" s="122"/>
+      <c r="I220" s="123" t="s">
         <v>150</v>
       </c>
       <c r="J220" s="17"/>
@@ -10519,26 +11331,28 @@
       <c r="U220" s="17"/>
       <c r="V220" s="17"/>
     </row>
-    <row r="221" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B221" s="35"/>
+      <c r="B221" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C221" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D221" s="66">
+      <c r="D221" s="65">
         <v>6</v>
       </c>
       <c r="E221" s="35"/>
-      <c r="F221" s="117" t="s">
-        <v>193</v>
-      </c>
-      <c r="G221" s="118" t="s">
+      <c r="F221" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="G221" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="H221" s="119"/>
-      <c r="I221" s="120" t="s">
+      <c r="H221" s="118"/>
+      <c r="I221" s="119" t="s">
         <v>153</v>
       </c>
       <c r="J221" s="22"/>
@@ -10555,15 +11369,15 @@
       <c r="U221" s="17"/>
       <c r="V221" s="17"/>
     </row>
-    <row r="222" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="17"/>
-      <c r="B222" s="17"/>
+      <c r="B222" s="134"/>
       <c r="C222" s="17"/>
-      <c r="D222" s="63"/>
+      <c r="D222" s="62"/>
       <c r="E222" s="17"/>
       <c r="F222" s="17"/>
-      <c r="G222" s="79"/>
-      <c r="H222" s="100"/>
+      <c r="G222" s="78"/>
+      <c r="H222" s="99"/>
       <c r="I222" s="48"/>
       <c r="J222" s="17"/>
       <c r="K222" s="17"/>
@@ -10579,26 +11393,28 @@
       <c r="U222" s="17"/>
       <c r="V222" s="17"/>
     </row>
-    <row r="223" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B223" s="35"/>
+      <c r="B223" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C223" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D223" s="66">
+      <c r="D223" s="65">
         <v>6</v>
       </c>
       <c r="E223" s="30"/>
-      <c r="F223" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="G223" s="125" t="s">
+      <c r="F223" s="120" t="s">
+        <v>193</v>
+      </c>
+      <c r="G223" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="H223" s="126"/>
-      <c r="I223" s="124" t="s">
+      <c r="H223" s="125"/>
+      <c r="I223" s="123" t="s">
         <v>155</v>
       </c>
       <c r="J223" s="17"/>
@@ -10615,26 +11431,28 @@
       <c r="IU223"/>
       <c r="IV223"/>
     </row>
-    <row r="224" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B224" s="35"/>
+      <c r="B224" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C224" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D224" s="66">
+      <c r="D224" s="65">
         <v>6</v>
       </c>
       <c r="E224" s="30"/>
-      <c r="F224" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="G224" s="125" t="s">
+      <c r="F224" s="120" t="s">
+        <v>193</v>
+      </c>
+      <c r="G224" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="H224" s="126"/>
-      <c r="I224" s="124" t="s">
+      <c r="H224" s="125"/>
+      <c r="I224" s="123" t="s">
         <v>155</v>
       </c>
       <c r="J224" s="17"/>
@@ -10651,26 +11469,28 @@
       <c r="IU224"/>
       <c r="IV224"/>
     </row>
-    <row r="225" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B225" s="35"/>
+      <c r="B225" s="134" t="s">
+        <v>195</v>
+      </c>
       <c r="C225" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D225" s="66">
+      <c r="D225" s="65">
         <v>6</v>
       </c>
       <c r="E225" s="30"/>
-      <c r="F225" s="117" t="s">
-        <v>195</v>
-      </c>
-      <c r="G225" s="127" t="s">
+      <c r="F225" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="G225" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="H225" s="128"/>
-      <c r="I225" s="120" t="s">
+      <c r="H225" s="127"/>
+      <c r="I225" s="119" t="s">
         <v>158</v>
       </c>
       <c r="J225" s="17"/>
